--- a/SO SACH/2016/331 - 131 -NXT.xlsx
+++ b/SO SACH/2016/331 - 131 -NXT.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="915" windowWidth="14820" windowHeight="7905" tabRatio="894"/>
+    <workbookView xWindow="0" yWindow="915" windowWidth="14820" windowHeight="7905" tabRatio="894" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="331" sheetId="12" r:id="rId1"/>
     <sheet name="131" sheetId="62" r:id="rId2"/>
     <sheet name="NXT" sheetId="55" r:id="rId3"/>
+    <sheet name="154" sheetId="63" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_C111">#REF!</definedName>
     <definedName name="_C112">#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'131'!$A$1:$N$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'331'!$A$3:$H$94</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NXT!$B$10:$M$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">NXT!$B$10:$M$116</definedName>
     <definedName name="_N111">#REF!</definedName>
     <definedName name="_N112">#REF!</definedName>
     <definedName name="_TH">#REF!</definedName>
@@ -83,18 +84,18 @@
     <definedName name="Loai8">OFFSET(#REF!,,,COUNTA(#REF!))</definedName>
     <definedName name="Loai9">OFFSET(#REF!,,,COUNTA(#REF!))</definedName>
     <definedName name="MH">#REF!</definedName>
-    <definedName name="NXT">NXT!$A$11:$A$440</definedName>
+    <definedName name="NXT">NXT!$A$11:$A$437</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'331'!$A$1:$H$94</definedName>
     <definedName name="SL">#REF!</definedName>
     <definedName name="TH">#REF!</definedName>
     <definedName name="TM">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="256">
   <si>
     <t>A</t>
   </si>
@@ -842,12 +843,33 @@
   </si>
   <si>
     <t>TỔNG HỢP TÀI KHOẢN 331 - 2016</t>
+  </si>
+  <si>
+    <t>CHI PHÍ SẢN XUẤT KINH DOANH DỞ DANG</t>
+  </si>
+  <si>
+    <t>TÊN HÀNG</t>
+  </si>
+  <si>
+    <t>Tổng cộng hàng gửi gia công</t>
+  </si>
+  <si>
+    <t>ĐVT</t>
+  </si>
+  <si>
+    <t>SỐ LƯỢNG</t>
+  </si>
+  <si>
+    <t>ĐƠN GIÁ</t>
+  </si>
+  <si>
+    <t>THÀNH TIỀN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="10">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -858,9 +880,9 @@
     <numFmt numFmtId="169" formatCode="&quot;\&quot;#,##0.00;[Red]&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;&quot;\&quot;\-#,##0.00"/>
     <numFmt numFmtId="170" formatCode="#,###"/>
     <numFmt numFmtId="171" formatCode="&quot;Ngày&quot;\ dd&quot; tháng&quot;\ mm&quot; năm&quot;\ yyyy"/>
-    <numFmt numFmtId="173" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="172" formatCode="_(* #,##0.0_);_(* \(#,##0.0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="53">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1115,10 +1137,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="VNI-Times"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="VNI-Times"/>
     </font>
@@ -1173,8 +1191,10 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="VNI-Helve"/>
+      <b/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="26">
@@ -1721,10 +1741,10 @@
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="44" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0"/>
+    <xf numFmtId="170" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="171" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1739,7 +1759,7 @@
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="33" fillId="0" borderId="16" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1816,46 +1836,46 @@
     <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" xfId="87" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" xfId="87" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" xfId="87" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" xfId="87" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="87" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" xfId="87" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="25" borderId="0" xfId="87" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="25" borderId="0" xfId="87" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" xfId="87" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1870,7 +1890,7 @@
     <xf numFmtId="0" fontId="33" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1885,7 +1905,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="29" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1903,16 +1923,16 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="52" fillId="0" borderId="16" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="16" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="52" fillId="0" borderId="16" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="51" fillId="0" borderId="16" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1930,7 +1950,7 @@
     <xf numFmtId="164" fontId="33" fillId="0" borderId="19" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="33" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="33" fillId="0" borderId="21" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1985,15 +2005,6 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="21" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="21" borderId="12" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2056,55 +2067,88 @@
     </xf>
     <xf numFmtId="0" fontId="38" fillId="21" borderId="23" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="33" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="33" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="89" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="22" xfId="56" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="2" xfId="34" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="2" xfId="52" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="33" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="53" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="88" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="89" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="25" xfId="29" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="21" borderId="2" xfId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="92">
@@ -2291,6 +2335,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2325,6 +2370,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2500,13 +2546,13 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" workbookViewId="0">
+    <sheetView showZeros="0" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F104" sqref="F104"/>
     </sheetView>
@@ -2520,82 +2566,82 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="27" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="104" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
     </row>
     <row r="2" spans="1:8" s="4" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="100" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="101"/>
-      <c r="G2" s="100" t="s">
+      <c r="F2" s="98"/>
+      <c r="G2" s="97" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="101"/>
+      <c r="H2" s="98"/>
     </row>
     <row r="3" spans="1:8" s="4" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A3" s="103"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="101" t="s">
+      <c r="A3" s="100"/>
+      <c r="B3" s="102"/>
+      <c r="C3" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="101" t="s">
+      <c r="D3" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="101" t="s">
+      <c r="E3" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="101" t="s">
+      <c r="F3" s="98" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G3" s="98" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="101" t="s">
+      <c r="H3" s="98" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+    <row r="4" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="96" t="s">
         <v>201</v>
       </c>
-      <c r="C4" s="87">
-        <v>0</v>
-      </c>
-      <c r="D4" s="87">
-        <v>0</v>
-      </c>
-      <c r="E4" s="87">
+      <c r="C4" s="84">
+        <v>0</v>
+      </c>
+      <c r="D4" s="84">
+        <v>0</v>
+      </c>
+      <c r="E4" s="84">
         <v>147323000</v>
       </c>
-      <c r="F4" s="87">
+      <c r="F4" s="84">
         <v>147323000</v>
       </c>
-      <c r="G4" s="92">
-        <v>0</v>
-      </c>
-      <c r="H4" s="92">
+      <c r="G4" s="89">
+        <v>0</v>
+      </c>
+      <c r="H4" s="89">
         <v>0</v>
       </c>
     </row>
@@ -3197,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+    <row r="28" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -3219,7 +3265,7 @@
         <v>442008071</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+    <row r="29" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -3824,18 +3870,18 @@
       <c r="B52" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87">
+      <c r="C52" s="84"/>
+      <c r="D52" s="84"/>
+      <c r="E52" s="84">
         <v>14667659500</v>
       </c>
-      <c r="F52" s="87">
+      <c r="F52" s="84">
         <v>14667659500</v>
       </c>
-      <c r="G52" s="92">
-        <v>0</v>
-      </c>
-      <c r="H52" s="92">
+      <c r="G52" s="89">
+        <v>0</v>
+      </c>
+      <c r="H52" s="89">
         <v>0</v>
       </c>
     </row>
@@ -3846,18 +3892,18 @@
       <c r="B53" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87">
+      <c r="C53" s="84"/>
+      <c r="D53" s="84"/>
+      <c r="E53" s="84">
         <v>6625495500</v>
       </c>
-      <c r="F53" s="87">
+      <c r="F53" s="84">
         <v>6625495500</v>
       </c>
-      <c r="G53" s="92">
-        <v>0</v>
-      </c>
-      <c r="H53" s="92">
+      <c r="G53" s="89">
+        <v>0</v>
+      </c>
+      <c r="H53" s="89">
         <v>0</v>
       </c>
     </row>
@@ -3868,832 +3914,832 @@
       <c r="B54" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87">
+      <c r="C54" s="84"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84">
         <v>1094119000</v>
       </c>
-      <c r="F54" s="87">
+      <c r="F54" s="84">
         <v>1094119000</v>
       </c>
-      <c r="G54" s="92">
-        <v>0</v>
-      </c>
-      <c r="H54" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G54" s="89">
+        <v>0</v>
+      </c>
+      <c r="H54" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A55" s="1">
         <v>52</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C55" s="87"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="87">
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84">
         <v>377735000</v>
       </c>
-      <c r="F55" s="87">
+      <c r="F55" s="84">
         <v>377735000</v>
       </c>
-      <c r="G55" s="92">
-        <v>0</v>
-      </c>
-      <c r="H55" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G55" s="89">
+        <v>0</v>
+      </c>
+      <c r="H55" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A56" s="1">
         <v>53</v>
       </c>
       <c r="B56" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="87">
+      <c r="C56" s="84"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84">
         <v>566122000</v>
       </c>
-      <c r="F56" s="87">
+      <c r="F56" s="84">
         <v>566122000</v>
       </c>
-      <c r="G56" s="92">
-        <v>0</v>
-      </c>
-      <c r="H56" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G56" s="89">
+        <v>0</v>
+      </c>
+      <c r="H56" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A57" s="1">
         <v>54</v>
       </c>
       <c r="B57" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="87"/>
-      <c r="E57" s="87">
+      <c r="C57" s="84"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84">
         <v>6996064500</v>
       </c>
-      <c r="F57" s="87">
+      <c r="F57" s="84">
         <v>9569940500</v>
       </c>
-      <c r="G57" s="92">
-        <v>0</v>
-      </c>
-      <c r="H57" s="92">
+      <c r="G57" s="89">
+        <v>0</v>
+      </c>
+      <c r="H57" s="89">
         <v>2573876000</v>
       </c>
     </row>
-    <row r="58" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+    <row r="58" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A58" s="1">
         <v>55</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87">
+      <c r="C58" s="84"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84">
         <v>463260000</v>
       </c>
-      <c r="F58" s="87">
+      <c r="F58" s="84">
         <v>463260000</v>
       </c>
-      <c r="G58" s="92">
-        <v>0</v>
-      </c>
-      <c r="H58" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G58" s="89">
+        <v>0</v>
+      </c>
+      <c r="H58" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A59" s="1">
         <v>56</v>
       </c>
       <c r="B59" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87">
+      <c r="C59" s="84"/>
+      <c r="D59" s="84"/>
+      <c r="E59" s="84">
         <v>801199500</v>
       </c>
-      <c r="F59" s="87">
+      <c r="F59" s="84">
         <v>801199500</v>
       </c>
-      <c r="G59" s="92">
-        <v>0</v>
-      </c>
-      <c r="H59" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G59" s="89">
+        <v>0</v>
+      </c>
+      <c r="H59" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A60" s="1">
         <v>57</v>
       </c>
       <c r="B60" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="C60" s="87"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87">
+      <c r="C60" s="84"/>
+      <c r="D60" s="84"/>
+      <c r="E60" s="84">
         <v>745605000</v>
       </c>
-      <c r="F60" s="87">
+      <c r="F60" s="84">
         <v>745605000</v>
       </c>
-      <c r="G60" s="92">
-        <v>0</v>
-      </c>
-      <c r="H60" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G60" s="89">
+        <v>0</v>
+      </c>
+      <c r="H60" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A61" s="1">
         <v>58</v>
       </c>
       <c r="B61" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87">
+      <c r="C61" s="84"/>
+      <c r="D61" s="84"/>
+      <c r="E61" s="84">
         <v>5789102000</v>
       </c>
-      <c r="F61" s="87">
+      <c r="F61" s="84">
         <v>8260462000</v>
       </c>
-      <c r="G61" s="92">
-        <v>0</v>
-      </c>
-      <c r="H61" s="92">
+      <c r="G61" s="89">
+        <v>0</v>
+      </c>
+      <c r="H61" s="89">
         <v>2471360000</v>
       </c>
     </row>
-    <row r="62" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+    <row r="62" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A62" s="1">
         <v>59</v>
       </c>
-      <c r="B62" s="94" t="s">
+      <c r="B62" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="87">
+      <c r="C62" s="84"/>
+      <c r="D62" s="84"/>
+      <c r="E62" s="84">
         <v>1236110500</v>
       </c>
-      <c r="F62" s="87">
+      <c r="F62" s="84">
         <v>1236110500</v>
       </c>
-      <c r="G62" s="92">
-        <v>0</v>
-      </c>
-      <c r="H62" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G62" s="89">
+        <v>0</v>
+      </c>
+      <c r="H62" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A63" s="1">
         <v>60</v>
       </c>
-      <c r="B63" s="94" t="s">
+      <c r="B63" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="C63" s="87"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="87">
+      <c r="C63" s="84"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84">
         <v>853349000</v>
       </c>
-      <c r="F63" s="87">
+      <c r="F63" s="84">
         <v>853349000</v>
       </c>
-      <c r="G63" s="92">
-        <v>0</v>
-      </c>
-      <c r="H63" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G63" s="89">
+        <v>0</v>
+      </c>
+      <c r="H63" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A64" s="1">
         <v>61</v>
       </c>
       <c r="B64" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C64" s="87"/>
-      <c r="D64" s="87"/>
-      <c r="E64" s="87">
+      <c r="C64" s="84"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84">
         <v>2202073500</v>
       </c>
-      <c r="F64" s="87">
+      <c r="F64" s="84">
         <v>2202073500</v>
       </c>
-      <c r="G64" s="92">
-        <v>0</v>
-      </c>
-      <c r="H64" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G64" s="89">
+        <v>0</v>
+      </c>
+      <c r="H64" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A65" s="1">
         <v>62</v>
       </c>
       <c r="B65" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="C65" s="87"/>
-      <c r="D65" s="87"/>
-      <c r="E65" s="87">
+      <c r="C65" s="84"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84">
         <v>579483000</v>
       </c>
-      <c r="F65" s="87">
+      <c r="F65" s="84">
         <v>579483000</v>
       </c>
-      <c r="G65" s="92">
-        <v>0</v>
-      </c>
-      <c r="H65" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G65" s="89">
+        <v>0</v>
+      </c>
+      <c r="H65" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A66" s="1">
         <v>63</v>
       </c>
       <c r="B66" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C66" s="87"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="87">
+      <c r="C66" s="84"/>
+      <c r="D66" s="84"/>
+      <c r="E66" s="84">
         <v>5904446500</v>
       </c>
-      <c r="F66" s="87">
+      <c r="F66" s="84">
         <v>8116871500</v>
       </c>
-      <c r="G66" s="92">
-        <v>0</v>
-      </c>
-      <c r="H66" s="92">
+      <c r="G66" s="89">
+        <v>0</v>
+      </c>
+      <c r="H66" s="89">
         <v>2212425000</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+    <row r="67" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A67" s="1">
         <v>64</v>
       </c>
-      <c r="B67" s="94" t="s">
+      <c r="B67" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="C67" s="87"/>
-      <c r="D67" s="87"/>
-      <c r="E67" s="87">
+      <c r="C67" s="84"/>
+      <c r="D67" s="84"/>
+      <c r="E67" s="84">
         <v>1016822500</v>
       </c>
-      <c r="F67" s="87">
+      <c r="F67" s="84">
         <v>1016822500</v>
       </c>
-      <c r="G67" s="92">
-        <v>0</v>
-      </c>
-      <c r="H67" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G67" s="89">
+        <v>0</v>
+      </c>
+      <c r="H67" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A68" s="1">
         <v>65</v>
       </c>
       <c r="B68" s="14" t="s">
         <v>197</v>
       </c>
-      <c r="C68" s="87"/>
-      <c r="D68" s="87"/>
-      <c r="E68" s="87">
+      <c r="C68" s="84"/>
+      <c r="D68" s="84"/>
+      <c r="E68" s="84">
         <v>1726494500</v>
       </c>
-      <c r="F68" s="87">
+      <c r="F68" s="84">
         <v>1726494500</v>
       </c>
-      <c r="G68" s="92">
-        <v>0</v>
-      </c>
-      <c r="H68" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G68" s="89">
+        <v>0</v>
+      </c>
+      <c r="H68" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A69" s="1">
         <v>66</v>
       </c>
       <c r="B69" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C69" s="87"/>
-      <c r="D69" s="87"/>
-      <c r="E69" s="87">
+      <c r="C69" s="84"/>
+      <c r="D69" s="84"/>
+      <c r="E69" s="84">
         <v>7398910000</v>
       </c>
-      <c r="F69" s="87">
+      <c r="F69" s="84">
         <v>9986811000</v>
       </c>
-      <c r="G69" s="92">
-        <v>0</v>
-      </c>
-      <c r="H69" s="92">
+      <c r="G69" s="89">
+        <v>0</v>
+      </c>
+      <c r="H69" s="89">
         <v>2587901000</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+    <row r="70" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A70" s="1">
         <v>67</v>
       </c>
-      <c r="B70" s="94" t="s">
+      <c r="B70" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="87"/>
-      <c r="D70" s="87"/>
-      <c r="E70" s="87">
+      <c r="C70" s="84"/>
+      <c r="D70" s="84"/>
+      <c r="E70" s="84">
         <v>1878028000</v>
       </c>
-      <c r="F70" s="87">
+      <c r="F70" s="84">
         <v>1878028000</v>
       </c>
-      <c r="G70" s="92">
-        <v>0</v>
-      </c>
-      <c r="H70" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G70" s="89">
+        <v>0</v>
+      </c>
+      <c r="H70" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A71" s="1">
         <v>68</v>
       </c>
-      <c r="B71" s="94" t="s">
+      <c r="B71" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87">
+      <c r="C71" s="84"/>
+      <c r="D71" s="84"/>
+      <c r="E71" s="84">
         <v>918715000</v>
       </c>
-      <c r="F71" s="87">
+      <c r="F71" s="84">
         <v>918715000</v>
       </c>
-      <c r="G71" s="92">
-        <v>0</v>
-      </c>
-      <c r="H71" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G71" s="89">
+        <v>0</v>
+      </c>
+      <c r="H71" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A72" s="1">
         <v>69</v>
       </c>
       <c r="B72" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="C72" s="87"/>
-      <c r="D72" s="87"/>
-      <c r="E72" s="87">
+      <c r="C72" s="84"/>
+      <c r="D72" s="84"/>
+      <c r="E72" s="84">
         <v>1394239500</v>
       </c>
-      <c r="F72" s="87">
+      <c r="F72" s="84">
         <v>1394239500</v>
       </c>
-      <c r="G72" s="92">
-        <v>0</v>
-      </c>
-      <c r="H72" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G72" s="89">
+        <v>0</v>
+      </c>
+      <c r="H72" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A73" s="1">
         <v>70</v>
       </c>
-      <c r="B73" s="94" t="s">
+      <c r="B73" s="91" t="s">
         <v>84</v>
       </c>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87">
+      <c r="C73" s="84"/>
+      <c r="D73" s="84"/>
+      <c r="E73" s="84">
         <v>1252985000</v>
       </c>
-      <c r="F73" s="87">
+      <c r="F73" s="84">
         <v>1252985000</v>
       </c>
-      <c r="G73" s="92">
-        <v>0</v>
-      </c>
-      <c r="H73" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G73" s="89">
+        <v>0</v>
+      </c>
+      <c r="H73" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A74" s="1">
         <v>71</v>
       </c>
-      <c r="B74" s="94" t="s">
+      <c r="B74" s="91" t="s">
         <v>65</v>
       </c>
-      <c r="C74" s="87"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87">
+      <c r="C74" s="84"/>
+      <c r="D74" s="84"/>
+      <c r="E74" s="84">
         <v>254500000</v>
       </c>
-      <c r="F74" s="87">
+      <c r="F74" s="84">
         <v>254500000</v>
       </c>
-      <c r="G74" s="92">
-        <v>0</v>
-      </c>
-      <c r="H74" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G74" s="89">
+        <v>0</v>
+      </c>
+      <c r="H74" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A75" s="1">
         <v>72</v>
       </c>
       <c r="B75" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87">
+      <c r="C75" s="84"/>
+      <c r="D75" s="84"/>
+      <c r="E75" s="84">
         <v>404750000</v>
       </c>
-      <c r="F75" s="87">
+      <c r="F75" s="84">
         <v>404750000</v>
       </c>
-      <c r="G75" s="92">
-        <v>0</v>
-      </c>
-      <c r="H75" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G75" s="89">
+        <v>0</v>
+      </c>
+      <c r="H75" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A76" s="1">
         <v>73</v>
       </c>
       <c r="B76" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C76" s="87"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="87">
+      <c r="C76" s="84"/>
+      <c r="D76" s="84"/>
+      <c r="E76" s="84">
         <v>320500000</v>
       </c>
-      <c r="F76" s="87">
+      <c r="F76" s="84">
         <v>320500000</v>
       </c>
-      <c r="G76" s="92">
-        <v>0</v>
-      </c>
-      <c r="H76" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G76" s="89">
+        <v>0</v>
+      </c>
+      <c r="H76" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A77" s="1">
         <v>74</v>
       </c>
       <c r="B77" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C77" s="87"/>
-      <c r="D77" s="87"/>
-      <c r="E77" s="87">
+      <c r="C77" s="84"/>
+      <c r="D77" s="84"/>
+      <c r="E77" s="84">
         <v>6113790000</v>
       </c>
-      <c r="F77" s="87">
+      <c r="F77" s="84">
         <v>8288159000</v>
       </c>
-      <c r="G77" s="92">
-        <v>0</v>
-      </c>
-      <c r="H77" s="92">
+      <c r="G77" s="89">
+        <v>0</v>
+      </c>
+      <c r="H77" s="89">
         <v>2174369000</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+    <row r="78" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A78" s="1">
         <v>75</v>
       </c>
       <c r="B78" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C78" s="87"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="87">
+      <c r="C78" s="84"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84">
         <v>7395265000</v>
       </c>
-      <c r="F78" s="87">
+      <c r="F78" s="84">
         <v>9353812500</v>
       </c>
-      <c r="G78" s="92">
-        <v>0</v>
-      </c>
-      <c r="H78" s="92">
+      <c r="G78" s="89">
+        <v>0</v>
+      </c>
+      <c r="H78" s="89">
         <v>1958547500</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+    <row r="79" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A79" s="1">
         <v>76</v>
       </c>
-      <c r="B79" s="94" t="s">
+      <c r="B79" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="C79" s="87"/>
-      <c r="D79" s="87"/>
-      <c r="E79" s="87">
+      <c r="C79" s="84"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84">
         <v>948096500</v>
       </c>
-      <c r="F79" s="87">
+      <c r="F79" s="84">
         <v>948096500</v>
       </c>
-      <c r="G79" s="92">
-        <v>0</v>
-      </c>
-      <c r="H79" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G79" s="89">
+        <v>0</v>
+      </c>
+      <c r="H79" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A80" s="1">
         <v>77</v>
       </c>
       <c r="B80" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="C80" s="87"/>
-      <c r="D80" s="87"/>
-      <c r="E80" s="87">
+      <c r="C80" s="84"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84">
         <v>1339860000</v>
       </c>
-      <c r="F80" s="87">
+      <c r="F80" s="84">
         <v>1339860000</v>
       </c>
-      <c r="G80" s="92">
-        <v>0</v>
-      </c>
-      <c r="H80" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G80" s="89">
+        <v>0</v>
+      </c>
+      <c r="H80" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A81" s="1">
         <v>78</v>
       </c>
       <c r="B81" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="87">
+      <c r="C81" s="84"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84">
         <v>1802321500</v>
       </c>
-      <c r="F81" s="87">
+      <c r="F81" s="84">
         <v>1802321500</v>
       </c>
-      <c r="G81" s="92">
-        <v>0</v>
-      </c>
-      <c r="H81" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G81" s="89">
+        <v>0</v>
+      </c>
+      <c r="H81" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A82" s="1">
         <v>79</v>
       </c>
       <c r="B82" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C82" s="87"/>
-      <c r="D82" s="87"/>
-      <c r="E82" s="87">
+      <c r="C82" s="84"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84">
         <v>266200000</v>
       </c>
-      <c r="F82" s="87">
+      <c r="F82" s="84">
         <v>266200000</v>
       </c>
-      <c r="G82" s="92">
-        <v>0</v>
-      </c>
-      <c r="H82" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G82" s="89">
+        <v>0</v>
+      </c>
+      <c r="H82" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A83" s="1">
         <v>80</v>
       </c>
-      <c r="B83" s="91" t="s">
+      <c r="B83" s="88" t="s">
         <v>51</v>
       </c>
-      <c r="C83" s="87"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="87">
+      <c r="C83" s="84"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84">
         <v>6432710000</v>
       </c>
-      <c r="F83" s="87">
+      <c r="F83" s="84">
         <v>8913420000</v>
       </c>
-      <c r="G83" s="92">
-        <v>0</v>
-      </c>
-      <c r="H83" s="92">
+      <c r="G83" s="89">
+        <v>0</v>
+      </c>
+      <c r="H83" s="89">
         <v>2480710000</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+    <row r="84" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A84" s="1">
         <v>81</v>
       </c>
-      <c r="B84" s="91" t="s">
+      <c r="B84" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="C84" s="87"/>
-      <c r="D84" s="87"/>
-      <c r="E84" s="87">
+      <c r="C84" s="84"/>
+      <c r="D84" s="84"/>
+      <c r="E84" s="84">
         <v>5384188000</v>
       </c>
-      <c r="F84" s="87">
+      <c r="F84" s="84">
         <v>8074928000</v>
       </c>
-      <c r="G84" s="92">
-        <v>0</v>
-      </c>
-      <c r="H84" s="92">
+      <c r="G84" s="89">
+        <v>0</v>
+      </c>
+      <c r="H84" s="89">
         <v>2690740000</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+    <row r="85" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A85" s="1">
         <v>82</v>
       </c>
-      <c r="B85" s="91" t="s">
+      <c r="B85" s="88" t="s">
         <v>77</v>
       </c>
-      <c r="C85" s="87"/>
-      <c r="D85" s="87"/>
-      <c r="E85" s="87">
+      <c r="C85" s="84"/>
+      <c r="D85" s="84"/>
+      <c r="E85" s="84">
         <v>1001937500</v>
       </c>
-      <c r="F85" s="87">
+      <c r="F85" s="84">
         <v>1001937500</v>
       </c>
-      <c r="G85" s="92">
-        <v>0</v>
-      </c>
-      <c r="H85" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G85" s="89">
+        <v>0</v>
+      </c>
+      <c r="H85" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A86" s="1">
         <v>83</v>
       </c>
-      <c r="B86" s="91" t="s">
+      <c r="B86" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="C86" s="87"/>
-      <c r="D86" s="87"/>
-      <c r="E86" s="87">
+      <c r="C86" s="84"/>
+      <c r="D86" s="84"/>
+      <c r="E86" s="84">
         <v>1006770000</v>
       </c>
-      <c r="F86" s="87">
+      <c r="F86" s="84">
         <v>1006770000</v>
       </c>
-      <c r="G86" s="92">
-        <v>0</v>
-      </c>
-      <c r="H86" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G86" s="89">
+        <v>0</v>
+      </c>
+      <c r="H86" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A87" s="1">
         <v>84</v>
       </c>
-      <c r="B87" s="91" t="s">
+      <c r="B87" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="C87" s="87"/>
-      <c r="D87" s="87"/>
-      <c r="E87" s="87">
+      <c r="C87" s="84"/>
+      <c r="D87" s="84"/>
+      <c r="E87" s="84">
         <v>757515000</v>
       </c>
-      <c r="F87" s="87">
+      <c r="F87" s="84">
         <v>757515000</v>
       </c>
-      <c r="G87" s="92">
-        <v>0</v>
-      </c>
-      <c r="H87" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G87" s="89">
+        <v>0</v>
+      </c>
+      <c r="H87" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A88" s="1">
         <v>85</v>
       </c>
-      <c r="B88" s="91" t="s">
+      <c r="B88" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="C88" s="87"/>
-      <c r="D88" s="87"/>
-      <c r="E88" s="87">
+      <c r="C88" s="84"/>
+      <c r="D88" s="84"/>
+      <c r="E88" s="84">
         <v>858605000</v>
       </c>
-      <c r="F88" s="87">
+      <c r="F88" s="84">
         <v>858605000</v>
       </c>
-      <c r="G88" s="92">
-        <v>0</v>
-      </c>
-      <c r="H88" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G88" s="89">
+        <v>0</v>
+      </c>
+      <c r="H88" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A89" s="1">
         <v>86</v>
       </c>
-      <c r="B89" s="91" t="s">
+      <c r="B89" s="88" t="s">
         <v>73</v>
       </c>
-      <c r="C89" s="87"/>
-      <c r="D89" s="87"/>
-      <c r="E89" s="87">
+      <c r="C89" s="84"/>
+      <c r="D89" s="84"/>
+      <c r="E89" s="84">
         <v>828275000</v>
       </c>
-      <c r="F89" s="87">
+      <c r="F89" s="84">
         <v>828275000</v>
       </c>
-      <c r="G89" s="92">
-        <v>0</v>
-      </c>
-      <c r="H89" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G89" s="89">
+        <v>0</v>
+      </c>
+      <c r="H89" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A90" s="1">
         <v>87</v>
       </c>
-      <c r="B90" s="91" t="s">
+      <c r="B90" s="88" t="s">
         <v>75</v>
       </c>
-      <c r="C90" s="87"/>
-      <c r="D90" s="87"/>
-      <c r="E90" s="87">
+      <c r="C90" s="84"/>
+      <c r="D90" s="84"/>
+      <c r="E90" s="84">
         <v>379335000</v>
       </c>
-      <c r="F90" s="87">
+      <c r="F90" s="84">
         <v>379335000</v>
       </c>
-      <c r="G90" s="92">
-        <v>0</v>
-      </c>
-      <c r="H90" s="92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" s="93" customFormat="1" ht="16.5" customHeight="1">
+      <c r="G90" s="89">
+        <v>0</v>
+      </c>
+      <c r="H90" s="89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="90" customFormat="1" ht="16.5" customHeight="1">
       <c r="A91" s="1">
         <v>88</v>
       </c>
-      <c r="B91" s="91" t="s">
+      <c r="B91" s="88" t="s">
         <v>76</v>
       </c>
-      <c r="C91" s="87"/>
-      <c r="D91" s="87"/>
-      <c r="E91" s="87">
+      <c r="C91" s="84"/>
+      <c r="D91" s="84"/>
+      <c r="E91" s="84">
         <v>177555000</v>
       </c>
-      <c r="F91" s="87">
+      <c r="F91" s="84">
         <v>177555000</v>
       </c>
-      <c r="G91" s="92">
-        <v>0</v>
-      </c>
-      <c r="H91" s="92">
+      <c r="G91" s="89">
+        <v>0</v>
+      </c>
+      <c r="H91" s="89">
         <v>0</v>
       </c>
     </row>
@@ -4702,30 +4748,30 @@
         <v>215</v>
       </c>
       <c r="B92" s="14"/>
-      <c r="C92" s="87"/>
-      <c r="D92" s="87"/>
-      <c r="E92" s="87">
-        <v>0</v>
-      </c>
-      <c r="F92" s="87">
-        <v>0</v>
-      </c>
-      <c r="G92" s="92">
-        <v>0</v>
-      </c>
-      <c r="H92" s="92">
+      <c r="C92" s="84"/>
+      <c r="D92" s="84"/>
+      <c r="E92" s="84">
+        <v>0</v>
+      </c>
+      <c r="F92" s="84">
+        <v>0</v>
+      </c>
+      <c r="G92" s="89">
+        <v>0</v>
+      </c>
+      <c r="H92" s="89">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8" s="4" customFormat="1" ht="16.5" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="14"/>
-      <c r="C93" s="87"/>
-      <c r="D93" s="87"/>
-      <c r="E93" s="87"/>
-      <c r="F93" s="87"/>
-      <c r="G93" s="92"/>
-      <c r="H93" s="92"/>
+      <c r="C93" s="84"/>
+      <c r="D93" s="84"/>
+      <c r="E93" s="84"/>
+      <c r="F93" s="84"/>
+      <c r="G93" s="89"/>
+      <c r="H93" s="89"/>
     </row>
     <row r="94" spans="1:8" s="8" customFormat="1" ht="14.25" customHeight="1">
       <c r="A94" s="5"/>
@@ -4767,25 +4813,25 @@
     </row>
     <row r="98" spans="5:8" ht="15">
       <c r="E98" s="19"/>
-      <c r="F98" s="121" t="s">
+      <c r="F98" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="G98" s="121"/>
-      <c r="H98" s="121"/>
+      <c r="G98" s="103"/>
+      <c r="H98" s="103"/>
     </row>
     <row r="99" spans="5:8" ht="15">
-      <c r="F99" s="121" t="s">
+      <c r="F99" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="G99" s="121"/>
-      <c r="H99" s="121"/>
+      <c r="G99" s="103"/>
+      <c r="H99" s="103"/>
     </row>
     <row r="100" spans="5:8" ht="15">
-      <c r="F100" s="121" t="s">
+      <c r="F100" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="G100" s="121"/>
-      <c r="H100" s="121"/>
+      <c r="G100" s="103"/>
+      <c r="H100" s="103"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:H94"/>
@@ -4806,7 +4852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -4840,28 +4886,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="104" t="s">
         <v>247</v>
       </c>
-      <c r="B1" s="106"/>
-      <c r="C1" s="106"/>
-      <c r="D1" s="106"/>
-      <c r="E1" s="106"/>
-      <c r="F1" s="106"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="106"/>
-      <c r="I1" s="106"/>
-      <c r="J1" s="106"/>
-      <c r="K1" s="106"/>
-      <c r="L1" s="106"/>
-      <c r="M1" s="106"/>
-      <c r="N1" s="106"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="104"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="104"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="104"/>
+      <c r="M1" s="104"/>
+      <c r="N1" s="104"/>
     </row>
     <row r="2" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="110" t="s">
+      <c r="A2" s="106" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="109" t="s">
+      <c r="B2" s="105" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="80" t="s">
@@ -4884,67 +4930,67 @@
       <c r="N2" s="79"/>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="110"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="109" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="109" t="s">
+      <c r="D3" s="105"/>
+      <c r="E3" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="109"/>
-      <c r="G3" s="109" t="s">
+      <c r="F3" s="105"/>
+      <c r="G3" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109" t="s">
+      <c r="H3" s="105"/>
+      <c r="I3" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109" t="s">
+      <c r="J3" s="105"/>
+      <c r="K3" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109" t="s">
+      <c r="L3" s="105"/>
+      <c r="M3" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="109"/>
+      <c r="N3" s="105"/>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A4" s="110"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="96" t="s">
+      <c r="A4" s="106"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="93" t="s">
         <v>14</v>
       </c>
       <c r="D4" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="96" t="s">
+      <c r="E4" s="93" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="96" t="s">
+      <c r="G4" s="93" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="I4" s="96" t="s">
+      <c r="I4" s="93" t="s">
         <v>14</v>
       </c>
       <c r="J4" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="96" t="s">
+      <c r="K4" s="93" t="s">
         <v>14</v>
       </c>
       <c r="L4" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="M4" s="96" t="s">
+      <c r="M4" s="93" t="s">
         <v>14</v>
       </c>
       <c r="N4" s="78" t="s">
@@ -5354,8 +5400,8 @@
       <c r="B14" s="17" t="s">
         <v>164</v>
       </c>
-      <c r="C14" s="97"/>
-      <c r="D14" s="97"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
       <c r="E14" s="75"/>
       <c r="F14" s="75"/>
       <c r="G14" s="75">
@@ -5390,8 +5436,8 @@
       <c r="B15" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="C15" s="97"/>
-      <c r="D15" s="97"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
       <c r="E15" s="75"/>
       <c r="F15" s="75"/>
       <c r="G15" s="75">
@@ -5426,8 +5472,8 @@
       <c r="B16" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
       <c r="E16" s="75"/>
       <c r="F16" s="75"/>
       <c r="G16" s="75">
@@ -5462,8 +5508,8 @@
       <c r="B17" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C17" s="97"/>
-      <c r="D17" s="97"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
       <c r="E17" s="75"/>
       <c r="F17" s="75"/>
       <c r="G17" s="75">
@@ -5498,8 +5544,8 @@
       <c r="B18" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="97"/>
-      <c r="D18" s="97"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
       <c r="E18" s="75"/>
       <c r="F18" s="75"/>
       <c r="G18" s="75">
@@ -5531,11 +5577,11 @@
       <c r="A19" s="77">
         <v>15</v>
       </c>
-      <c r="B19" s="95" t="s">
+      <c r="B19" s="92" t="s">
         <v>212</v>
       </c>
-      <c r="C19" s="97"/>
-      <c r="D19" s="97"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
       <c r="E19" s="75"/>
       <c r="F19" s="75"/>
       <c r="G19" s="75">
@@ -5567,11 +5613,11 @@
       <c r="A20" s="77">
         <v>16</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="91" t="s">
         <v>228</v>
       </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
       <c r="E20" s="75"/>
       <c r="F20" s="75"/>
       <c r="G20" s="75">
@@ -5603,11 +5649,11 @@
       <c r="A21" s="77">
         <v>16</v>
       </c>
-      <c r="B21" s="94" t="s">
+      <c r="B21" s="91" t="s">
         <v>238</v>
       </c>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="94"/>
       <c r="E21" s="75"/>
       <c r="F21" s="75"/>
       <c r="G21" s="75">
@@ -5658,7 +5704,7 @@
       <c r="H22" s="71">
         <v>163935009965</v>
       </c>
-      <c r="I22" s="98">
+      <c r="I22" s="95">
         <v>4745578.4509999994</v>
       </c>
       <c r="J22" s="71">
@@ -5693,25 +5739,25 @@
     </row>
     <row r="26" spans="1:14" ht="15">
       <c r="I26" s="70"/>
-      <c r="L26" s="121" t="s">
+      <c r="L26" s="103" t="s">
         <v>95</v>
       </c>
-      <c r="M26" s="121"/>
-      <c r="N26" s="121"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="103"/>
     </row>
     <row r="27" spans="1:14" ht="15">
-      <c r="L27" s="121" t="s">
+      <c r="L27" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="M27" s="121"/>
-      <c r="N27" s="121"/>
+      <c r="M27" s="103"/>
+      <c r="N27" s="103"/>
     </row>
     <row r="28" spans="1:14" ht="15">
-      <c r="L28" s="121" t="s">
+      <c r="L28" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="M28" s="121"/>
-      <c r="N28" s="121"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="103"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:N22">
@@ -5730,18 +5776,18 @@
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="12">
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B4"/>
     <mergeCell ref="L26:N26"/>
     <mergeCell ref="L27:N27"/>
     <mergeCell ref="L28:N28"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="B2:B4"/>
   </mergeCells>
   <pageMargins left="0.16" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape" r:id="rId1"/>
@@ -5750,14 +5796,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor indexed="28"/>
   </sheetPr>
-  <dimension ref="A1:M128"/>
+  <dimension ref="A1:M125"/>
   <sheetViews>
-    <sheetView topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="J122" sqref="J122:L124"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5787,13 +5833,13 @@
       <c r="E1" s="27"/>
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
-      <c r="H1" s="107" t="s">
+      <c r="H1" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
       <c r="M1" s="29"/>
     </row>
     <row r="2" spans="1:13" s="25" customFormat="1" ht="14.25" customHeight="1">
@@ -5805,13 +5851,13 @@
       <c r="E2" s="31"/>
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
       <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" s="25" customFormat="1" ht="14.25" customHeight="1">
@@ -5821,107 +5867,107 @@
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
-      <c r="H3" s="112" t="s">
+      <c r="H3" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="117"/>
       <c r="M3" s="33"/>
     </row>
     <row r="4" spans="1:13" s="34" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B4" s="113" t="s">
+      <c r="B4" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="113"/>
-      <c r="J4" s="113"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="118"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="118"/>
+      <c r="J4" s="118"/>
+      <c r="K4" s="118"/>
+      <c r="L4" s="118"/>
       <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1" ht="15" hidden="1">
-      <c r="B5" s="111" t="s">
+      <c r="B5" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
-      <c r="G5" s="111"/>
-      <c r="H5" s="111"/>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
+      <c r="C5" s="114"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
+      <c r="H5" s="114"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
       <c r="M5" s="35"/>
     </row>
     <row r="6" spans="1:13" s="36" customFormat="1" ht="27.75" hidden="1">
-      <c r="C6" s="120" t="s">
+      <c r="C6" s="107" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="120"/>
-      <c r="E6" s="120"/>
-      <c r="F6" s="120"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="120"/>
-      <c r="I6" s="120"/>
-      <c r="J6" s="120"/>
-      <c r="K6" s="120"/>
-      <c r="L6" s="120"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="107"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="107"/>
+      <c r="L6" s="107"/>
       <c r="M6" s="37"/>
     </row>
     <row r="7" spans="1:13" ht="12.75" customHeight="1">
-      <c r="B7" s="114" t="s">
+      <c r="B7" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="115" t="s">
+      <c r="C7" s="109" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="116" t="s">
+      <c r="D7" s="110" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="118" t="s">
+      <c r="E7" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="118"/>
-      <c r="G7" s="118"/>
-      <c r="H7" s="118"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="112"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
     </row>
     <row r="8" spans="1:13" ht="20.25" customHeight="1">
-      <c r="B8" s="114"/>
-      <c r="C8" s="115"/>
-      <c r="D8" s="117"/>
-      <c r="E8" s="118" t="s">
+      <c r="B8" s="108"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="111"/>
+      <c r="E8" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="F8" s="118"/>
-      <c r="G8" s="119" t="s">
+      <c r="F8" s="112"/>
+      <c r="G8" s="113" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="119"/>
-      <c r="I8" s="119" t="s">
+      <c r="H8" s="113"/>
+      <c r="I8" s="113" t="s">
         <v>27</v>
       </c>
-      <c r="J8" s="119"/>
-      <c r="K8" s="119" t="s">
+      <c r="J8" s="113"/>
+      <c r="K8" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="119"/>
+      <c r="L8" s="113"/>
     </row>
     <row r="9" spans="1:13" ht="20.25" hidden="1" customHeight="1">
-      <c r="B9" s="114"/>
-      <c r="C9" s="115"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="109"/>
       <c r="D9" s="40"/>
       <c r="E9" s="41" t="s">
         <v>29</v>
@@ -6511,34 +6557,34 @@
       <c r="B25" s="46">
         <v>15</v>
       </c>
-      <c r="C25" s="90" t="s">
+      <c r="C25" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="87">
+      <c r="E25" s="84">
         <v>295214</v>
       </c>
-      <c r="F25" s="87">
+      <c r="F25" s="84">
         <v>102435290</v>
       </c>
-      <c r="G25" s="88">
-        <v>0</v>
-      </c>
-      <c r="H25" s="88">
-        <v>0</v>
-      </c>
-      <c r="I25" s="88">
+      <c r="G25" s="85">
+        <v>0</v>
+      </c>
+      <c r="H25" s="85">
+        <v>0</v>
+      </c>
+      <c r="I25" s="85">
         <v>295214</v>
       </c>
-      <c r="J25" s="88">
+      <c r="J25" s="85">
         <v>102435290</v>
       </c>
-      <c r="K25" s="89">
-        <v>0</v>
-      </c>
-      <c r="L25" s="89">
+      <c r="K25" s="86">
+        <v>0</v>
+      </c>
+      <c r="L25" s="86">
         <v>0</v>
       </c>
       <c r="M25" s="49"/>
@@ -6550,34 +6596,34 @@
       <c r="B26" s="46">
         <v>16</v>
       </c>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="87">
+      <c r="E26" s="84">
         <v>6600</v>
       </c>
-      <c r="F26" s="87">
+      <c r="F26" s="84">
         <v>3597000</v>
       </c>
-      <c r="G26" s="88">
-        <v>0</v>
-      </c>
-      <c r="H26" s="88">
-        <v>0</v>
-      </c>
-      <c r="I26" s="88">
+      <c r="G26" s="85">
+        <v>0</v>
+      </c>
+      <c r="H26" s="85">
+        <v>0</v>
+      </c>
+      <c r="I26" s="85">
         <v>6600</v>
       </c>
-      <c r="J26" s="88">
+      <c r="J26" s="85">
         <v>3597000</v>
       </c>
-      <c r="K26" s="89">
-        <v>0</v>
-      </c>
-      <c r="L26" s="89">
+      <c r="K26" s="86">
+        <v>0</v>
+      </c>
+      <c r="L26" s="86">
         <v>0</v>
       </c>
       <c r="M26" s="49"/>
@@ -6589,34 +6635,34 @@
       <c r="B27" s="46">
         <v>17</v>
       </c>
-      <c r="C27" s="85" t="s">
+      <c r="C27" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="87">
+      <c r="E27" s="84">
         <v>93800</v>
       </c>
-      <c r="F27" s="87">
+      <c r="F27" s="84">
         <v>28140000</v>
       </c>
-      <c r="G27" s="88">
-        <v>0</v>
-      </c>
-      <c r="H27" s="88">
-        <v>0</v>
-      </c>
-      <c r="I27" s="88">
-        <v>0</v>
-      </c>
-      <c r="J27" s="88">
-        <v>0</v>
-      </c>
-      <c r="K27" s="87">
+      <c r="G27" s="85">
+        <v>0</v>
+      </c>
+      <c r="H27" s="85">
+        <v>0</v>
+      </c>
+      <c r="I27" s="85">
+        <v>0</v>
+      </c>
+      <c r="J27" s="85">
+        <v>0</v>
+      </c>
+      <c r="K27" s="84">
         <v>93800</v>
       </c>
-      <c r="L27" s="87">
+      <c r="L27" s="84">
         <v>28140000</v>
       </c>
       <c r="M27" s="49"/>
@@ -6628,34 +6674,34 @@
       <c r="B28" s="46">
         <v>18</v>
       </c>
-      <c r="C28" s="90" t="s">
+      <c r="C28" s="87" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="87">
+      <c r="E28" s="84">
         <v>48700</v>
       </c>
-      <c r="F28" s="87">
+      <c r="F28" s="84">
         <v>19480000</v>
       </c>
-      <c r="G28" s="88">
-        <v>0</v>
-      </c>
-      <c r="H28" s="88">
-        <v>0</v>
-      </c>
-      <c r="I28" s="88">
-        <v>0</v>
-      </c>
-      <c r="J28" s="88">
-        <v>0</v>
-      </c>
-      <c r="K28" s="87">
+      <c r="G28" s="85">
+        <v>0</v>
+      </c>
+      <c r="H28" s="85">
+        <v>0</v>
+      </c>
+      <c r="I28" s="85">
+        <v>0</v>
+      </c>
+      <c r="J28" s="85">
+        <v>0</v>
+      </c>
+      <c r="K28" s="84">
         <v>48700</v>
       </c>
-      <c r="L28" s="87">
+      <c r="L28" s="84">
         <v>19480000</v>
       </c>
       <c r="M28" s="49"/>
@@ -6667,34 +6713,34 @@
       <c r="B29" s="46">
         <v>19</v>
       </c>
-      <c r="C29" s="90" t="s">
+      <c r="C29" s="87" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="87">
+      <c r="E29" s="84">
         <v>12300</v>
       </c>
-      <c r="F29" s="87">
+      <c r="F29" s="84">
         <v>2890500</v>
       </c>
-      <c r="G29" s="88">
-        <v>0</v>
-      </c>
-      <c r="H29" s="88">
-        <v>0</v>
-      </c>
-      <c r="I29" s="88">
+      <c r="G29" s="85">
+        <v>0</v>
+      </c>
+      <c r="H29" s="85">
+        <v>0</v>
+      </c>
+      <c r="I29" s="85">
         <v>12300</v>
       </c>
-      <c r="J29" s="88">
+      <c r="J29" s="85">
         <v>2890500</v>
       </c>
-      <c r="K29" s="87">
-        <v>0</v>
-      </c>
-      <c r="L29" s="87">
+      <c r="K29" s="84">
+        <v>0</v>
+      </c>
+      <c r="L29" s="84">
         <v>0</v>
       </c>
       <c r="M29" s="49"/>
@@ -7605,25 +7651,39 @@
     </row>
     <row r="56" spans="1:13" ht="18.75" customHeight="1">
       <c r="A56" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="B56" s="82"/>
-      <c r="C56" s="83"/>
-      <c r="D56" s="84"/>
-      <c r="E56" s="84"/>
-      <c r="F56" s="84">
-        <v>0</v>
-      </c>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84">
-        <v>0</v>
-      </c>
-      <c r="I56" s="84"/>
-      <c r="J56" s="84">
-        <v>0</v>
-      </c>
-      <c r="K56" s="84"/>
-      <c r="L56" s="84">
+        <v>97</v>
+      </c>
+      <c r="B56" s="81">
+        <v>1</v>
+      </c>
+      <c r="C56" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="10">
+        <v>46400</v>
+      </c>
+      <c r="F56" s="10">
+        <v>858400000</v>
+      </c>
+      <c r="G56" s="10">
+        <v>278900</v>
+      </c>
+      <c r="H56" s="10">
+        <v>5112750000</v>
+      </c>
+      <c r="I56" s="10">
+        <v>325300</v>
+      </c>
+      <c r="J56" s="10">
+        <v>5971150000</v>
+      </c>
+      <c r="K56" s="10">
+        <v>0</v>
+      </c>
+      <c r="L56" s="10">
         <v>0</v>
       </c>
       <c r="M56" s="49"/>
@@ -7632,37 +7692,37 @@
       <c r="A57" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="B57" s="81">
-        <v>1</v>
-      </c>
-      <c r="C57" s="47" t="s">
-        <v>123</v>
+      <c r="B57" s="46">
+        <v>2</v>
+      </c>
+      <c r="C57" s="50" t="s">
+        <v>124</v>
       </c>
       <c r="D57" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E57" s="10">
-        <v>46400</v>
-      </c>
-      <c r="F57" s="10">
-        <v>858400000</v>
+      <c r="E57" s="3">
+        <v>132000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>1914000000</v>
       </c>
       <c r="G57" s="10">
-        <v>278900</v>
+        <v>558380</v>
       </c>
       <c r="H57" s="10">
-        <v>5112750000</v>
+        <v>8782710000</v>
       </c>
       <c r="I57" s="10">
-        <v>325300</v>
+        <v>690380</v>
       </c>
       <c r="J57" s="10">
-        <v>5971150000</v>
-      </c>
-      <c r="K57" s="10">
-        <v>0</v>
-      </c>
-      <c r="L57" s="10">
+        <v>10696710000</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>0</v>
       </c>
       <c r="M57" s="49"/>
@@ -7672,31 +7732,27 @@
         <v>97</v>
       </c>
       <c r="B58" s="46">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="50" t="s">
-        <v>124</v>
+        <v>209</v>
       </c>
       <c r="D58" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="3">
-        <v>132000</v>
-      </c>
-      <c r="F58" s="3">
-        <v>1914000000</v>
-      </c>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
       <c r="G58" s="10">
-        <v>558380</v>
+        <v>179070</v>
       </c>
       <c r="H58" s="10">
-        <v>8782710000</v>
+        <v>4966537500</v>
       </c>
       <c r="I58" s="10">
-        <v>690380</v>
+        <v>179070</v>
       </c>
       <c r="J58" s="10">
-        <v>10696710000</v>
+        <v>4966537500</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -7706,15 +7762,15 @@
       </c>
       <c r="M58" s="49"/>
     </row>
-    <row r="59" spans="1:13" ht="18.75" customHeight="1">
+    <row r="59" spans="1:13" ht="19.5" customHeight="1">
       <c r="A59" s="45" t="s">
         <v>97</v>
       </c>
       <c r="B59" s="46">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" s="50" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="D59" s="48" t="s">
         <v>32</v>
@@ -7722,16 +7778,16 @@
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="10">
-        <v>179070</v>
+        <v>17100</v>
       </c>
       <c r="H59" s="10">
-        <v>4966537500</v>
+        <v>474500000</v>
       </c>
       <c r="I59" s="10">
-        <v>179070</v>
+        <v>17100</v>
       </c>
       <c r="J59" s="10">
-        <v>4966537500</v>
+        <v>474500000</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -7746,10 +7802,10 @@
         <v>97</v>
       </c>
       <c r="B60" s="46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C60" s="50" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D60" s="48" t="s">
         <v>32</v>
@@ -7757,16 +7813,16 @@
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="10">
-        <v>17100</v>
+        <v>3000</v>
       </c>
       <c r="H60" s="10">
-        <v>474500000</v>
+        <v>84000000</v>
       </c>
       <c r="I60" s="10">
-        <v>17100</v>
+        <v>3000</v>
       </c>
       <c r="J60" s="10">
-        <v>474500000</v>
+        <v>84000000</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -7781,10 +7837,10 @@
         <v>97</v>
       </c>
       <c r="B61" s="46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" s="50" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D61" s="48" t="s">
         <v>32</v>
@@ -7792,16 +7848,16 @@
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="10">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="H61" s="10">
-        <v>84000000</v>
+        <v>115000000</v>
       </c>
       <c r="I61" s="10">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="J61" s="10">
-        <v>84000000</v>
+        <v>115000000</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -7816,10 +7872,10 @@
         <v>97</v>
       </c>
       <c r="B62" s="46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C62" s="50" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D62" s="48" t="s">
         <v>32</v>
@@ -7827,16 +7883,16 @@
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="10">
-        <v>2500</v>
+        <v>6650</v>
       </c>
       <c r="H62" s="10">
-        <v>115000000</v>
+        <v>231775000</v>
       </c>
       <c r="I62" s="10">
-        <v>2500</v>
+        <v>6650</v>
       </c>
       <c r="J62" s="10">
-        <v>115000000</v>
+        <v>231775000</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -7851,10 +7907,10 @@
         <v>97</v>
       </c>
       <c r="B63" s="46">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" s="50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D63" s="48" t="s">
         <v>32</v>
@@ -7862,16 +7918,16 @@
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="10">
-        <v>6650</v>
+        <v>150000</v>
       </c>
       <c r="H63" s="10">
-        <v>231775000</v>
+        <v>2850000000</v>
       </c>
       <c r="I63" s="10">
-        <v>6650</v>
+        <v>150000</v>
       </c>
       <c r="J63" s="10">
-        <v>231775000</v>
+        <v>2850000000</v>
       </c>
       <c r="K63" s="3">
         <v>0</v>
@@ -7886,10 +7942,10 @@
         <v>97</v>
       </c>
       <c r="B64" s="46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" s="50" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D64" s="48" t="s">
         <v>32</v>
@@ -7897,16 +7953,16 @@
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="10">
-        <v>150000</v>
+        <v>24343</v>
       </c>
       <c r="H64" s="10">
-        <v>2850000000</v>
+        <v>2564065000</v>
       </c>
       <c r="I64" s="10">
-        <v>150000</v>
+        <v>24343</v>
       </c>
       <c r="J64" s="10">
-        <v>2850000000</v>
+        <v>2564065000</v>
       </c>
       <c r="K64" s="3">
         <v>0</v>
@@ -7921,10 +7977,10 @@
         <v>97</v>
       </c>
       <c r="B65" s="46">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C65" s="50" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="D65" s="48" t="s">
         <v>32</v>
@@ -7932,16 +7988,16 @@
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="10">
-        <v>24343</v>
+        <v>40430</v>
       </c>
       <c r="H65" s="10">
-        <v>2564065000</v>
+        <v>1070750000</v>
       </c>
       <c r="I65" s="10">
-        <v>24343</v>
+        <v>40430</v>
       </c>
       <c r="J65" s="10">
-        <v>2564065000</v>
+        <v>1070750000</v>
       </c>
       <c r="K65" s="3">
         <v>0</v>
@@ -7949,17 +8005,17 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="49"/>
+      <c r="M65" s="65"/>
     </row>
     <row r="66" spans="1:13" ht="19.5" customHeight="1">
       <c r="A66" s="45" t="s">
         <v>97</v>
       </c>
       <c r="B66" s="46">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C66" s="50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D66" s="48" t="s">
         <v>32</v>
@@ -7967,16 +8023,16 @@
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="10">
-        <v>40430</v>
+        <v>3975342</v>
       </c>
       <c r="H66" s="10">
-        <v>1070750000</v>
+        <v>70564404500</v>
       </c>
       <c r="I66" s="10">
-        <v>40430</v>
+        <v>3975342</v>
       </c>
       <c r="J66" s="10">
-        <v>1070750000</v>
+        <v>70564404500</v>
       </c>
       <c r="K66" s="3">
         <v>0</v>
@@ -7984,17 +8040,17 @@
       <c r="L66" s="3">
         <v>0</v>
       </c>
-      <c r="M66" s="65"/>
+      <c r="M66" s="38"/>
     </row>
     <row r="67" spans="1:13" ht="19.5" customHeight="1">
       <c r="A67" s="45" t="s">
         <v>97</v>
       </c>
       <c r="B67" s="46">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C67" s="50" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D67" s="48" t="s">
         <v>32</v>
@@ -8002,16 +8058,16 @@
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="10">
-        <v>3975342</v>
+        <v>16100</v>
       </c>
       <c r="H67" s="10">
-        <v>70564404500</v>
+        <v>179756500</v>
       </c>
       <c r="I67" s="10">
-        <v>3975342</v>
+        <v>16100</v>
       </c>
       <c r="J67" s="10">
-        <v>70564404500</v>
+        <v>179756500</v>
       </c>
       <c r="K67" s="3">
         <v>0</v>
@@ -8021,15 +8077,15 @@
       </c>
       <c r="M67" s="38"/>
     </row>
-    <row r="68" spans="1:13" ht="19.5" customHeight="1">
+    <row r="68" spans="1:13" ht="18.75" customHeight="1">
       <c r="A68" s="45" t="s">
         <v>97</v>
       </c>
       <c r="B68" s="46">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C68" s="50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D68" s="48" t="s">
         <v>32</v>
@@ -8037,16 +8093,16 @@
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="10">
-        <v>16100</v>
+        <v>7700</v>
       </c>
       <c r="H68" s="10">
-        <v>179756500</v>
+        <v>85970500</v>
       </c>
       <c r="I68" s="10">
-        <v>16100</v>
+        <v>7700</v>
       </c>
       <c r="J68" s="10">
-        <v>179756500</v>
+        <v>85970500</v>
       </c>
       <c r="K68" s="3">
         <v>0</v>
@@ -8061,10 +8117,10 @@
         <v>97</v>
       </c>
       <c r="B69" s="46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C69" s="50" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="D69" s="48" t="s">
         <v>32</v>
@@ -8072,16 +8128,16 @@
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="10">
-        <v>7700</v>
+        <v>660</v>
       </c>
       <c r="H69" s="10">
-        <v>85970500</v>
+        <v>23100000</v>
       </c>
       <c r="I69" s="10">
-        <v>7700</v>
+        <v>660</v>
       </c>
       <c r="J69" s="10">
-        <v>85970500</v>
+        <v>23100000</v>
       </c>
       <c r="K69" s="3">
         <v>0</v>
@@ -8096,10 +8152,10 @@
         <v>97</v>
       </c>
       <c r="B70" s="46">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C70" s="50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D70" s="48" t="s">
         <v>32</v>
@@ -8107,16 +8163,16 @@
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="10">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="H70" s="10">
-        <v>23100000</v>
+        <v>19200000</v>
       </c>
       <c r="I70" s="10">
-        <v>660</v>
+        <v>600</v>
       </c>
       <c r="J70" s="10">
-        <v>23100000</v>
+        <v>19200000</v>
       </c>
       <c r="K70" s="3">
         <v>0</v>
@@ -8131,10 +8187,10 @@
         <v>97</v>
       </c>
       <c r="B71" s="46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C71" s="50" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D71" s="48" t="s">
         <v>32</v>
@@ -8142,16 +8198,16 @@
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="10">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="H71" s="10">
-        <v>19200000</v>
+        <v>2700000</v>
       </c>
       <c r="I71" s="10">
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="J71" s="10">
-        <v>19200000</v>
+        <v>2700000</v>
       </c>
       <c r="K71" s="3">
         <v>0</v>
@@ -8166,10 +8222,10 @@
         <v>97</v>
       </c>
       <c r="B72" s="46">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C72" s="50" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D72" s="48" t="s">
         <v>32</v>
@@ -8177,16 +8233,16 @@
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="10">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="H72" s="10">
-        <v>2700000</v>
+        <v>1155000</v>
       </c>
       <c r="I72" s="10">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="J72" s="10">
-        <v>2700000</v>
+        <v>1155000</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -8201,10 +8257,10 @@
         <v>97</v>
       </c>
       <c r="B73" s="46">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C73" s="50" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D73" s="48" t="s">
         <v>32</v>
@@ -8212,16 +8268,16 @@
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="10">
-        <v>11</v>
+        <v>3440</v>
       </c>
       <c r="H73" s="10">
-        <v>1155000</v>
+        <v>60200000</v>
       </c>
       <c r="I73" s="10">
-        <v>11</v>
+        <v>3440</v>
       </c>
       <c r="J73" s="10">
-        <v>1155000</v>
+        <v>60200000</v>
       </c>
       <c r="K73" s="3">
         <v>0</v>
@@ -8233,181 +8289,199 @@
     </row>
     <row r="74" spans="1:13" ht="18.75" customHeight="1">
       <c r="A74" s="45" t="s">
-        <v>97</v>
-      </c>
-      <c r="B74" s="46">
-        <v>18</v>
-      </c>
-      <c r="C74" s="50" t="s">
-        <v>243</v>
-      </c>
-      <c r="D74" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="B74" s="46" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="61"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="63"/>
+      <c r="G74" s="63"/>
+      <c r="H74" s="63"/>
+      <c r="I74" s="63"/>
+      <c r="J74" s="63"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="38"/>
+    </row>
+    <row r="75" spans="1:13" ht="19.5" customHeight="1">
+      <c r="A75" s="45"/>
+      <c r="B75" s="43"/>
+      <c r="C75" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" s="43"/>
+      <c r="E75" s="7">
+        <v>178400</v>
+      </c>
+      <c r="F75" s="7">
+        <v>2772400000</v>
+      </c>
+      <c r="G75" s="7">
+        <v>5264526</v>
+      </c>
+      <c r="H75" s="7">
+        <v>97188574000</v>
+      </c>
+      <c r="I75" s="7">
+        <v>5442926</v>
+      </c>
+      <c r="J75" s="7">
+        <v>99960974000</v>
+      </c>
+      <c r="K75" s="7">
+        <v>0</v>
+      </c>
+      <c r="L75" s="7">
+        <v>0</v>
+      </c>
+      <c r="M75" s="38"/>
+    </row>
+    <row r="76" spans="1:13" ht="19.5" customHeight="1">
+      <c r="A76" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B76" s="81">
+        <v>1</v>
+      </c>
+      <c r="C76" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="D76" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="10">
-        <v>3440</v>
-      </c>
-      <c r="H74" s="10">
-        <v>60200000</v>
-      </c>
-      <c r="I74" s="10">
-        <v>3440</v>
-      </c>
-      <c r="J74" s="10">
-        <v>60200000</v>
-      </c>
-      <c r="K74" s="3">
-        <v>0</v>
-      </c>
-      <c r="L74" s="3">
-        <v>0</v>
-      </c>
-      <c r="M74" s="38"/>
-    </row>
-    <row r="75" spans="1:13" ht="18.75" customHeight="1">
-      <c r="A75" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="B75" s="46" t="s">
-        <v>215</v>
-      </c>
-      <c r="C75" s="61"/>
-      <c r="D75" s="62"/>
-      <c r="E75" s="63"/>
-      <c r="F75" s="63"/>
-      <c r="G75" s="63"/>
-      <c r="H75" s="63"/>
-      <c r="I75" s="63"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="38"/>
-    </row>
-    <row r="76" spans="1:13" ht="19.5" customHeight="1">
-      <c r="A76" s="45"/>
-      <c r="B76" s="43"/>
-      <c r="C76" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="D76" s="43"/>
-      <c r="E76" s="7">
-        <v>178400</v>
-      </c>
-      <c r="F76" s="7">
-        <v>2772400000</v>
-      </c>
-      <c r="G76" s="7">
-        <v>5264526</v>
-      </c>
-      <c r="H76" s="7">
-        <v>97188574000</v>
-      </c>
-      <c r="I76" s="7">
-        <v>5442926</v>
-      </c>
-      <c r="J76" s="7">
-        <v>99960974000</v>
-      </c>
-      <c r="K76" s="7">
-        <v>0</v>
-      </c>
-      <c r="L76" s="7">
+      <c r="E76" s="10">
+        <v>4725</v>
+      </c>
+      <c r="F76" s="10">
+        <v>600463535</v>
+      </c>
+      <c r="G76" s="10">
+        <v>42085</v>
+      </c>
+      <c r="H76" s="10">
+        <v>3953701196</v>
+      </c>
+      <c r="I76" s="10">
+        <v>46810</v>
+      </c>
+      <c r="J76" s="10">
+        <v>4554164731</v>
+      </c>
+      <c r="K76" s="10">
+        <v>0</v>
+      </c>
+      <c r="L76" s="10">
         <v>0</v>
       </c>
       <c r="M76" s="38"/>
     </row>
     <row r="77" spans="1:13" ht="19.5" customHeight="1">
       <c r="A77" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="B77" s="82"/>
-      <c r="C77" s="83"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84">
-        <v>0</v>
-      </c>
-      <c r="G77" s="84"/>
-      <c r="H77" s="84">
-        <v>0</v>
-      </c>
-      <c r="I77" s="84"/>
-      <c r="J77" s="84">
-        <v>0</v>
-      </c>
-      <c r="K77" s="84"/>
-      <c r="L77" s="84">
+        <v>246</v>
+      </c>
+      <c r="B77" s="46">
+        <v>2</v>
+      </c>
+      <c r="C77" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" s="64" t="s">
+        <v>32</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10">
+        <v>2370928.5</v>
+      </c>
+      <c r="H77" s="10">
+        <v>145122366953</v>
+      </c>
+      <c r="I77" s="10">
+        <v>2370928.5</v>
+      </c>
+      <c r="J77" s="10">
+        <v>145122366953</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
         <v>0</v>
       </c>
       <c r="M77" s="38"/>
     </row>
-    <row r="78" spans="1:13" ht="19.5" customHeight="1">
+    <row r="78" spans="1:13" ht="20.25" customHeight="1">
       <c r="A78" s="45" t="s">
         <v>246</v>
       </c>
-      <c r="B78" s="81">
-        <v>1</v>
-      </c>
-      <c r="C78" s="47" t="s">
-        <v>85</v>
+      <c r="B78" s="46">
+        <v>3</v>
+      </c>
+      <c r="C78" s="50" t="s">
+        <v>211</v>
       </c>
       <c r="D78" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E78" s="10">
-        <v>4725</v>
-      </c>
-      <c r="F78" s="10">
-        <v>600463535</v>
+      <c r="E78" s="3">
+        <v>31675</v>
+      </c>
+      <c r="F78" s="3">
+        <v>4490555471</v>
       </c>
       <c r="G78" s="10">
-        <v>42085</v>
+        <v>0</v>
       </c>
       <c r="H78" s="10">
-        <v>3953701196</v>
+        <v>0</v>
       </c>
       <c r="I78" s="10">
-        <v>46810</v>
+        <v>7209.2</v>
       </c>
       <c r="J78" s="10">
-        <v>4554164731</v>
-      </c>
-      <c r="K78" s="10">
-        <v>0</v>
-      </c>
-      <c r="L78" s="10">
-        <v>0</v>
+        <v>1022046172</v>
+      </c>
+      <c r="K78" s="3">
+        <v>24465.8</v>
+      </c>
+      <c r="L78" s="3">
+        <v>3468509299</v>
       </c>
       <c r="M78" s="38"/>
     </row>
-    <row r="79" spans="1:13" ht="19.5" customHeight="1">
+    <row r="79" spans="1:13" ht="20.25" customHeight="1">
       <c r="A79" s="45" t="s">
         <v>246</v>
       </c>
       <c r="B79" s="46">
-        <v>2</v>
-      </c>
-      <c r="C79" s="47" t="s">
-        <v>96</v>
+        <v>4</v>
+      </c>
+      <c r="C79" s="50" t="s">
+        <v>88</v>
       </c>
       <c r="D79" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
+      <c r="E79" s="3">
+        <v>20987</v>
+      </c>
+      <c r="F79" s="3">
+        <v>3171039713</v>
+      </c>
       <c r="G79" s="10">
-        <v>2370928.5</v>
+        <v>35308</v>
       </c>
       <c r="H79" s="10">
-        <v>145122366953</v>
+        <v>5123178890</v>
       </c>
       <c r="I79" s="10">
-        <v>2370928.5</v>
+        <v>56295</v>
       </c>
       <c r="J79" s="10">
-        <v>145122366953</v>
+        <v>8294218603</v>
       </c>
       <c r="K79" s="3">
         <v>0</v>
@@ -8422,37 +8496,37 @@
         <v>246</v>
       </c>
       <c r="B80" s="46">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C80" s="50" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="D80" s="64" t="s">
         <v>32</v>
       </c>
       <c r="E80" s="3">
-        <v>31675</v>
+        <v>122</v>
       </c>
       <c r="F80" s="3">
-        <v>4490555471</v>
+        <v>17080000</v>
       </c>
       <c r="G80" s="10">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="H80" s="10">
-        <v>0</v>
+        <v>61762862</v>
       </c>
       <c r="I80" s="10">
-        <v>7209.2</v>
+        <v>810</v>
       </c>
       <c r="J80" s="10">
-        <v>1022046172</v>
+        <v>78842862</v>
       </c>
       <c r="K80" s="3">
-        <v>24465.8</v>
+        <v>0</v>
       </c>
       <c r="L80" s="3">
-        <v>3468509299</v>
+        <v>0</v>
       </c>
       <c r="M80" s="38"/>
     </row>
@@ -8461,31 +8535,31 @@
         <v>246</v>
       </c>
       <c r="B81" s="46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C81" s="50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D81" s="64" t="s">
         <v>32</v>
       </c>
       <c r="E81" s="3">
-        <v>20987</v>
+        <v>16075</v>
       </c>
       <c r="F81" s="3">
-        <v>3171039713</v>
+        <v>1107185105</v>
       </c>
       <c r="G81" s="10">
-        <v>35308</v>
+        <v>0</v>
       </c>
       <c r="H81" s="10">
-        <v>5123178890</v>
+        <v>0</v>
       </c>
       <c r="I81" s="10">
-        <v>56295</v>
+        <v>16075</v>
       </c>
       <c r="J81" s="10">
-        <v>8294218603</v>
+        <v>1107185105</v>
       </c>
       <c r="K81" s="3">
         <v>0</v>
@@ -8500,31 +8574,31 @@
         <v>246</v>
       </c>
       <c r="B82" s="46">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" s="50" t="s">
-        <v>237</v>
+        <v>91</v>
       </c>
       <c r="D82" s="64" t="s">
         <v>32</v>
       </c>
       <c r="E82" s="3">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="F82" s="3">
-        <v>17080000</v>
+        <v>0</v>
       </c>
       <c r="G82" s="10">
-        <v>688</v>
+        <v>14880</v>
       </c>
       <c r="H82" s="10">
-        <v>61762862</v>
+        <v>3504554380</v>
       </c>
       <c r="I82" s="10">
-        <v>810</v>
+        <v>14880</v>
       </c>
       <c r="J82" s="10">
-        <v>78842862</v>
+        <v>3504554380</v>
       </c>
       <c r="K82" s="3">
         <v>0</v>
@@ -8539,31 +8613,31 @@
         <v>246</v>
       </c>
       <c r="B83" s="46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C83" s="50" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D83" s="64" t="s">
         <v>32</v>
       </c>
       <c r="E83" s="3">
-        <v>16075</v>
+        <v>0</v>
       </c>
       <c r="F83" s="3">
-        <v>1107185105</v>
+        <v>0</v>
       </c>
       <c r="G83" s="10">
-        <v>0</v>
+        <v>52500</v>
       </c>
       <c r="H83" s="10">
-        <v>0</v>
+        <v>9782235198</v>
       </c>
       <c r="I83" s="10">
-        <v>16075</v>
+        <v>52500</v>
       </c>
       <c r="J83" s="10">
-        <v>1107185105</v>
+        <v>9782235198</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -8578,10 +8652,10 @@
         <v>246</v>
       </c>
       <c r="B84" s="46">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C84" s="50" t="s">
-        <v>91</v>
+        <v>142</v>
       </c>
       <c r="D84" s="64" t="s">
         <v>32</v>
@@ -8593,16 +8667,16 @@
         <v>0</v>
       </c>
       <c r="G84" s="10">
-        <v>14880</v>
+        <v>3420</v>
       </c>
       <c r="H84" s="10">
-        <v>3504554380</v>
+        <v>507862825</v>
       </c>
       <c r="I84" s="10">
-        <v>14880</v>
+        <v>3420</v>
       </c>
       <c r="J84" s="10">
-        <v>3504554380</v>
+        <v>507862825</v>
       </c>
       <c r="K84" s="3">
         <v>0</v>
@@ -8612,15 +8686,15 @@
       </c>
       <c r="M84" s="38"/>
     </row>
-    <row r="85" spans="1:13" ht="20.25" customHeight="1">
+    <row r="85" spans="1:13" ht="19.5" customHeight="1">
       <c r="A85" s="45" t="s">
         <v>246</v>
       </c>
       <c r="B85" s="46">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C85" s="50" t="s">
-        <v>92</v>
+        <v>185</v>
       </c>
       <c r="D85" s="64" t="s">
         <v>32</v>
@@ -8632,16 +8706,16 @@
         <v>0</v>
       </c>
       <c r="G85" s="10">
-        <v>52500</v>
+        <v>1330</v>
       </c>
       <c r="H85" s="10">
-        <v>9782235198</v>
+        <v>240688879</v>
       </c>
       <c r="I85" s="10">
-        <v>52500</v>
+        <v>1330</v>
       </c>
       <c r="J85" s="10">
-        <v>9782235198</v>
+        <v>240688879</v>
       </c>
       <c r="K85" s="3">
         <v>0</v>
@@ -8656,10 +8730,10 @@
         <v>246</v>
       </c>
       <c r="B86" s="46">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C86" s="50" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D86" s="64" t="s">
         <v>32</v>
@@ -8671,16 +8745,16 @@
         <v>0</v>
       </c>
       <c r="G86" s="10">
-        <v>3420</v>
+        <v>600</v>
       </c>
       <c r="H86" s="10">
-        <v>507862825</v>
+        <v>93918180</v>
       </c>
       <c r="I86" s="10">
-        <v>3420</v>
+        <v>600</v>
       </c>
       <c r="J86" s="10">
-        <v>507862825</v>
+        <v>93918180</v>
       </c>
       <c r="K86" s="3">
         <v>0</v>
@@ -8690,15 +8764,15 @@
       </c>
       <c r="M86" s="38"/>
     </row>
-    <row r="87" spans="1:13" ht="19.5" customHeight="1">
+    <row r="87" spans="1:13" ht="20.25" customHeight="1">
       <c r="A87" s="45" t="s">
         <v>246</v>
       </c>
       <c r="B87" s="46">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C87" s="50" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D87" s="64" t="s">
         <v>32</v>
@@ -8710,16 +8784,16 @@
         <v>0</v>
       </c>
       <c r="G87" s="10">
-        <v>1330</v>
+        <v>500</v>
       </c>
       <c r="H87" s="10">
-        <v>240688879</v>
+        <v>120888719</v>
       </c>
       <c r="I87" s="10">
-        <v>1330</v>
+        <v>500</v>
       </c>
       <c r="J87" s="10">
-        <v>240688879</v>
+        <v>120888719</v>
       </c>
       <c r="K87" s="3">
         <v>0</v>
@@ -8734,10 +8808,10 @@
         <v>246</v>
       </c>
       <c r="B88" s="46">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C88" s="50" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="D88" s="64" t="s">
         <v>32</v>
@@ -8749,16 +8823,16 @@
         <v>0</v>
       </c>
       <c r="G88" s="10">
-        <v>600</v>
+        <v>5390</v>
       </c>
       <c r="H88" s="10">
-        <v>93918180</v>
+        <v>71534853</v>
       </c>
       <c r="I88" s="10">
-        <v>600</v>
+        <v>5390</v>
       </c>
       <c r="J88" s="10">
-        <v>93918180</v>
+        <v>71534853</v>
       </c>
       <c r="K88" s="3">
         <v>0</v>
@@ -8773,10 +8847,10 @@
         <v>246</v>
       </c>
       <c r="B89" s="46">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C89" s="50" t="s">
-        <v>183</v>
+        <v>93</v>
       </c>
       <c r="D89" s="64" t="s">
         <v>32</v>
@@ -8788,16 +8862,16 @@
         <v>0</v>
       </c>
       <c r="G89" s="10">
-        <v>500</v>
+        <v>37800</v>
       </c>
       <c r="H89" s="10">
-        <v>120888719</v>
+        <v>6554043045.5</v>
       </c>
       <c r="I89" s="10">
-        <v>500</v>
+        <v>37800</v>
       </c>
       <c r="J89" s="10">
-        <v>120888719</v>
+        <v>6554043045.5</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -8812,10 +8886,10 @@
         <v>246</v>
       </c>
       <c r="B90" s="46">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C90" s="50" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="D90" s="64" t="s">
         <v>32</v>
@@ -8827,16 +8901,16 @@
         <v>0</v>
       </c>
       <c r="G90" s="10">
-        <v>5390</v>
+        <v>7400</v>
       </c>
       <c r="H90" s="10">
-        <v>71534853</v>
+        <v>1283200481</v>
       </c>
       <c r="I90" s="10">
-        <v>5390</v>
+        <v>7400</v>
       </c>
       <c r="J90" s="10">
-        <v>71534853</v>
+        <v>1283200481</v>
       </c>
       <c r="K90" s="3">
         <v>0</v>
@@ -8851,10 +8925,10 @@
         <v>246</v>
       </c>
       <c r="B91" s="46">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C91" s="50" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="D91" s="64" t="s">
         <v>32</v>
@@ -8866,16 +8940,16 @@
         <v>0</v>
       </c>
       <c r="G91" s="10">
-        <v>37800</v>
+        <v>20000</v>
       </c>
       <c r="H91" s="10">
-        <v>6554043045.5</v>
+        <v>3040891232</v>
       </c>
       <c r="I91" s="10">
-        <v>37800</v>
+        <v>20000</v>
       </c>
       <c r="J91" s="10">
-        <v>6554043045.5</v>
+        <v>3040891232</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -8890,10 +8964,10 @@
         <v>246</v>
       </c>
       <c r="B92" s="46">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C92" s="50" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="D92" s="64" t="s">
         <v>32</v>
@@ -8905,16 +8979,16 @@
         <v>0</v>
       </c>
       <c r="G92" s="10">
-        <v>7400</v>
+        <v>4770</v>
       </c>
       <c r="H92" s="10">
-        <v>1283200481</v>
+        <v>1107143879</v>
       </c>
       <c r="I92" s="10">
-        <v>7400</v>
+        <v>4770</v>
       </c>
       <c r="J92" s="10">
-        <v>1283200481</v>
+        <v>1107143879</v>
       </c>
       <c r="K92" s="3">
         <v>0</v>
@@ -8929,10 +9003,10 @@
         <v>246</v>
       </c>
       <c r="B93" s="46">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C93" s="50" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D93" s="64" t="s">
         <v>32</v>
@@ -8944,16 +9018,16 @@
         <v>0</v>
       </c>
       <c r="G93" s="10">
-        <v>20000</v>
+        <v>2650</v>
       </c>
       <c r="H93" s="10">
-        <v>3040891232</v>
+        <v>34682250</v>
       </c>
       <c r="I93" s="10">
-        <v>20000</v>
+        <v>2650</v>
       </c>
       <c r="J93" s="10">
-        <v>3040891232</v>
+        <v>34682250</v>
       </c>
       <c r="K93" s="3">
         <v>0</v>
@@ -8968,10 +9042,10 @@
         <v>246</v>
       </c>
       <c r="B94" s="46">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C94" s="50" t="s">
-        <v>166</v>
+        <v>181</v>
       </c>
       <c r="D94" s="64" t="s">
         <v>32</v>
@@ -8983,16 +9057,16 @@
         <v>0</v>
       </c>
       <c r="G94" s="10">
-        <v>4770</v>
+        <v>8100</v>
       </c>
       <c r="H94" s="10">
-        <v>1107143879</v>
+        <v>107939150</v>
       </c>
       <c r="I94" s="10">
-        <v>4770</v>
+        <v>8100</v>
       </c>
       <c r="J94" s="10">
-        <v>1107143879</v>
+        <v>107939150</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -9007,10 +9081,10 @@
         <v>246</v>
       </c>
       <c r="B95" s="46">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C95" s="50" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="D95" s="64" t="s">
         <v>32</v>
@@ -9022,16 +9096,16 @@
         <v>0</v>
       </c>
       <c r="G95" s="10">
-        <v>2650</v>
+        <v>3150</v>
       </c>
       <c r="H95" s="10">
-        <v>34682250</v>
+        <v>41026336</v>
       </c>
       <c r="I95" s="10">
-        <v>2650</v>
+        <v>3150</v>
       </c>
       <c r="J95" s="10">
-        <v>34682250</v>
+        <v>41026336</v>
       </c>
       <c r="K95" s="3">
         <v>0</v>
@@ -9046,10 +9120,10 @@
         <v>246</v>
       </c>
       <c r="B96" s="46">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C96" s="50" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="D96" s="64" t="s">
         <v>32</v>
@@ -9061,16 +9135,16 @@
         <v>0</v>
       </c>
       <c r="G96" s="10">
-        <v>8100</v>
+        <v>320</v>
       </c>
       <c r="H96" s="10">
-        <v>107939150</v>
+        <v>188497324</v>
       </c>
       <c r="I96" s="10">
-        <v>8100</v>
+        <v>320</v>
       </c>
       <c r="J96" s="10">
-        <v>107939150</v>
+        <v>188497324</v>
       </c>
       <c r="K96" s="3">
         <v>0</v>
@@ -9085,10 +9159,10 @@
         <v>246</v>
       </c>
       <c r="B97" s="46">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C97" s="50" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="D97" s="64" t="s">
         <v>32</v>
@@ -9100,16 +9174,16 @@
         <v>0</v>
       </c>
       <c r="G97" s="10">
-        <v>3150</v>
+        <v>870</v>
       </c>
       <c r="H97" s="10">
-        <v>41026336</v>
+        <v>512477100</v>
       </c>
       <c r="I97" s="10">
-        <v>3150</v>
+        <v>870</v>
       </c>
       <c r="J97" s="10">
-        <v>41026336</v>
+        <v>512477100</v>
       </c>
       <c r="K97" s="3">
         <v>0</v>
@@ -9124,10 +9198,10 @@
         <v>246</v>
       </c>
       <c r="B98" s="46">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C98" s="50" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D98" s="64" t="s">
         <v>32</v>
@@ -9139,16 +9213,16 @@
         <v>0</v>
       </c>
       <c r="G98" s="10">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="H98" s="10">
-        <v>188497324</v>
+        <v>76577038</v>
       </c>
       <c r="I98" s="10">
-        <v>320</v>
+        <v>130</v>
       </c>
       <c r="J98" s="10">
-        <v>188497324</v>
+        <v>76577038</v>
       </c>
       <c r="K98" s="3">
         <v>0</v>
@@ -9158,15 +9232,15 @@
       </c>
       <c r="M98" s="38"/>
     </row>
-    <row r="99" spans="1:13" ht="20.25" customHeight="1">
+    <row r="99" spans="1:13" ht="21" customHeight="1">
       <c r="A99" s="45" t="s">
         <v>246</v>
       </c>
       <c r="B99" s="46">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C99" s="50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D99" s="64" t="s">
         <v>32</v>
@@ -9178,16 +9252,16 @@
         <v>0</v>
       </c>
       <c r="G99" s="10">
-        <v>870</v>
+        <v>690</v>
       </c>
       <c r="H99" s="10">
-        <v>512477100</v>
+        <v>406447355</v>
       </c>
       <c r="I99" s="10">
-        <v>870</v>
+        <v>690</v>
       </c>
       <c r="J99" s="10">
-        <v>512477100</v>
+        <v>406447355</v>
       </c>
       <c r="K99" s="3">
         <v>0</v>
@@ -9197,15 +9271,15 @@
       </c>
       <c r="M99" s="38"/>
     </row>
-    <row r="100" spans="1:13" ht="20.25" customHeight="1">
+    <row r="100" spans="1:13" ht="21" customHeight="1">
       <c r="A100" s="45" t="s">
         <v>246</v>
       </c>
       <c r="B100" s="46">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C100" s="50" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D100" s="64" t="s">
         <v>32</v>
@@ -9217,16 +9291,16 @@
         <v>0</v>
       </c>
       <c r="G100" s="10">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="H100" s="10">
-        <v>76577038</v>
+        <v>147263534</v>
       </c>
       <c r="I100" s="10">
-        <v>130</v>
+        <v>250</v>
       </c>
       <c r="J100" s="10">
-        <v>76577038</v>
+        <v>147263534</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -9241,10 +9315,10 @@
         <v>246</v>
       </c>
       <c r="B101" s="46">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C101" s="50" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D101" s="64" t="s">
         <v>32</v>
@@ -9256,16 +9330,16 @@
         <v>0</v>
       </c>
       <c r="G101" s="10">
-        <v>690</v>
+        <v>500</v>
       </c>
       <c r="H101" s="10">
-        <v>406447355</v>
+        <v>294527068</v>
       </c>
       <c r="I101" s="10">
-        <v>690</v>
+        <v>500</v>
       </c>
       <c r="J101" s="10">
-        <v>406447355</v>
+        <v>294527068</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -9280,10 +9354,10 @@
         <v>246</v>
       </c>
       <c r="B102" s="46">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C102" s="50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D102" s="64" t="s">
         <v>32</v>
@@ -9295,16 +9369,16 @@
         <v>0</v>
       </c>
       <c r="G102" s="10">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="H102" s="10">
-        <v>147263534</v>
+        <v>329870317</v>
       </c>
       <c r="I102" s="10">
-        <v>250</v>
+        <v>560</v>
       </c>
       <c r="J102" s="10">
-        <v>147263534</v>
+        <v>329870317</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -9319,10 +9393,10 @@
         <v>246</v>
       </c>
       <c r="B103" s="46">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C103" s="50" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="D103" s="64" t="s">
         <v>32</v>
@@ -9334,16 +9408,16 @@
         <v>0</v>
       </c>
       <c r="G103" s="10">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="H103" s="10">
-        <v>294527068</v>
+        <v>388775730</v>
       </c>
       <c r="I103" s="10">
-        <v>500</v>
+        <v>660</v>
       </c>
       <c r="J103" s="10">
-        <v>294527068</v>
+        <v>388775730</v>
       </c>
       <c r="K103" s="3">
         <v>0</v>
@@ -9358,10 +9432,10 @@
         <v>246</v>
       </c>
       <c r="B104" s="46">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C104" s="50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D104" s="64" t="s">
         <v>32</v>
@@ -9373,16 +9447,16 @@
         <v>0</v>
       </c>
       <c r="G104" s="10">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="H104" s="10">
-        <v>329870317</v>
+        <v>341651400</v>
       </c>
       <c r="I104" s="10">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="J104" s="10">
-        <v>329870317</v>
+        <v>341651400</v>
       </c>
       <c r="K104" s="3">
         <v>0</v>
@@ -9397,10 +9471,10 @@
         <v>246</v>
       </c>
       <c r="B105" s="46">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C105" s="50" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D105" s="64" t="s">
         <v>32</v>
@@ -9412,16 +9486,16 @@
         <v>0</v>
       </c>
       <c r="G105" s="10">
-        <v>660</v>
+        <v>2000</v>
       </c>
       <c r="H105" s="10">
-        <v>388775730</v>
+        <v>1181644051</v>
       </c>
       <c r="I105" s="10">
-        <v>660</v>
+        <v>2000</v>
       </c>
       <c r="J105" s="10">
-        <v>388775730</v>
+        <v>1181644051</v>
       </c>
       <c r="K105" s="3">
         <v>0</v>
@@ -9431,15 +9505,15 @@
       </c>
       <c r="M105" s="38"/>
     </row>
-    <row r="106" spans="1:13" ht="21" customHeight="1">
+    <row r="106" spans="1:13" ht="21.75" customHeight="1">
       <c r="A106" s="45" t="s">
         <v>246</v>
       </c>
       <c r="B106" s="46">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C106" s="50" t="s">
-        <v>155</v>
+        <v>220</v>
       </c>
       <c r="D106" s="64" t="s">
         <v>32</v>
@@ -9451,16 +9525,16 @@
         <v>0</v>
       </c>
       <c r="G106" s="10">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="H106" s="10">
-        <v>341651400</v>
+        <v>23374820</v>
       </c>
       <c r="I106" s="10">
-        <v>580</v>
+        <v>110</v>
       </c>
       <c r="J106" s="10">
-        <v>341651400</v>
+        <v>23374820</v>
       </c>
       <c r="K106" s="3">
         <v>0</v>
@@ -9470,15 +9544,15 @@
       </c>
       <c r="M106" s="38"/>
     </row>
-    <row r="107" spans="1:13" ht="21" customHeight="1">
+    <row r="107" spans="1:13" ht="21.75" customHeight="1">
       <c r="A107" s="45" t="s">
         <v>246</v>
       </c>
       <c r="B107" s="46">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C107" s="50" t="s">
-        <v>161</v>
+        <v>222</v>
       </c>
       <c r="D107" s="64" t="s">
         <v>32</v>
@@ -9490,16 +9564,16 @@
         <v>0</v>
       </c>
       <c r="G107" s="10">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="H107" s="10">
-        <v>1181644051</v>
+        <v>19449836</v>
       </c>
       <c r="I107" s="10">
-        <v>2000</v>
+        <v>100</v>
       </c>
       <c r="J107" s="10">
-        <v>1181644051</v>
+        <v>19449836</v>
       </c>
       <c r="K107" s="3">
         <v>0</v>
@@ -9514,10 +9588,10 @@
         <v>246</v>
       </c>
       <c r="B108" s="46">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C108" s="50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D108" s="64" t="s">
         <v>32</v>
@@ -9529,16 +9603,16 @@
         <v>0</v>
       </c>
       <c r="G108" s="10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H108" s="10">
-        <v>23374820</v>
+        <v>13225364</v>
       </c>
       <c r="I108" s="10">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J108" s="10">
-        <v>23374820</v>
+        <v>13225364</v>
       </c>
       <c r="K108" s="3">
         <v>0</v>
@@ -9553,10 +9627,10 @@
         <v>246</v>
       </c>
       <c r="B109" s="46">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C109" s="50" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D109" s="64" t="s">
         <v>32</v>
@@ -9568,16 +9642,16 @@
         <v>0</v>
       </c>
       <c r="G109" s="10">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="H109" s="10">
-        <v>19449836</v>
+        <v>9257755</v>
       </c>
       <c r="I109" s="10">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J109" s="10">
-        <v>19449836</v>
+        <v>9257755</v>
       </c>
       <c r="K109" s="3">
         <v>0</v>
@@ -9592,10 +9666,10 @@
         <v>246</v>
       </c>
       <c r="B110" s="46">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C110" s="50" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D110" s="64" t="s">
         <v>32</v>
@@ -9607,16 +9681,16 @@
         <v>0</v>
       </c>
       <c r="G110" s="10">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="H110" s="10">
-        <v>13225364</v>
+        <v>2804318</v>
       </c>
       <c r="I110" s="10">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="J110" s="10">
-        <v>13225364</v>
+        <v>2804318</v>
       </c>
       <c r="K110" s="3">
         <v>0</v>
@@ -9631,10 +9705,10 @@
         <v>246</v>
       </c>
       <c r="B111" s="46">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C111" s="50" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D111" s="64" t="s">
         <v>32</v>
@@ -9646,16 +9720,16 @@
         <v>0</v>
       </c>
       <c r="G111" s="10">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="H111" s="10">
-        <v>9257755</v>
+        <v>26519327</v>
       </c>
       <c r="I111" s="10">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J111" s="10">
-        <v>9257755</v>
+        <v>26519327</v>
       </c>
       <c r="K111" s="3">
         <v>0</v>
@@ -9670,10 +9744,10 @@
         <v>246</v>
       </c>
       <c r="B112" s="46">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C112" s="50" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D112" s="64" t="s">
         <v>32</v>
@@ -9685,16 +9759,16 @@
         <v>0</v>
       </c>
       <c r="G112" s="10">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="H112" s="10">
-        <v>2804318</v>
+        <v>1167992</v>
       </c>
       <c r="I112" s="10">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="J112" s="10">
-        <v>2804318</v>
+        <v>1167992</v>
       </c>
       <c r="K112" s="3">
         <v>0</v>
@@ -9709,10 +9783,10 @@
         <v>246</v>
       </c>
       <c r="B113" s="46">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C113" s="50" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D113" s="64" t="s">
         <v>32</v>
@@ -9724,16 +9798,16 @@
         <v>0</v>
       </c>
       <c r="G113" s="10">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="H113" s="10">
-        <v>26519327</v>
+        <v>29489471</v>
       </c>
       <c r="I113" s="10">
-        <v>50</v>
+        <v>223</v>
       </c>
       <c r="J113" s="10">
-        <v>26519327</v>
+        <v>29489471</v>
       </c>
       <c r="K113" s="3">
         <v>0</v>
@@ -9748,10 +9822,10 @@
         <v>246</v>
       </c>
       <c r="B114" s="46">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C114" s="50" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="D114" s="64" t="s">
         <v>32</v>
@@ -9763,16 +9837,16 @@
         <v>0</v>
       </c>
       <c r="G114" s="10">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="H114" s="10">
-        <v>1167992</v>
+        <v>14941571</v>
       </c>
       <c r="I114" s="10">
-        <v>3</v>
+        <v>113</v>
       </c>
       <c r="J114" s="10">
-        <v>1167992</v>
+        <v>14941571</v>
       </c>
       <c r="K114" s="3">
         <v>0</v>
@@ -9784,234 +9858,130 @@
     </row>
     <row r="115" spans="1:13" ht="21.75" customHeight="1">
       <c r="A115" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="B115" s="46">
-        <v>38</v>
-      </c>
-      <c r="C115" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="D115" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="E115" s="3">
-        <v>0</v>
-      </c>
-      <c r="F115" s="3">
-        <v>0</v>
-      </c>
-      <c r="G115" s="10">
-        <v>223</v>
-      </c>
-      <c r="H115" s="10">
-        <v>29489471</v>
-      </c>
-      <c r="I115" s="10">
-        <v>223</v>
-      </c>
-      <c r="J115" s="10">
-        <v>29489471</v>
-      </c>
-      <c r="K115" s="3">
-        <v>0</v>
-      </c>
-      <c r="L115" s="3">
-        <v>0</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B115" s="46"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="64"/>
+      <c r="E115" s="3"/>
+      <c r="F115" s="3"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="3"/>
+      <c r="L115" s="3"/>
       <c r="M115" s="38"/>
     </row>
     <row r="116" spans="1:13" ht="21.75" customHeight="1">
       <c r="A116" s="45" t="s">
-        <v>246</v>
-      </c>
-      <c r="B116" s="46">
-        <v>39</v>
-      </c>
-      <c r="C116" s="50" t="s">
-        <v>245</v>
-      </c>
-      <c r="D116" s="64" t="s">
-        <v>32</v>
-      </c>
-      <c r="E116" s="3">
-        <v>0</v>
-      </c>
-      <c r="F116" s="3">
-        <v>0</v>
-      </c>
-      <c r="G116" s="10">
-        <v>113</v>
-      </c>
-      <c r="H116" s="10">
-        <v>14941571</v>
-      </c>
-      <c r="I116" s="10">
-        <v>113</v>
-      </c>
-      <c r="J116" s="10">
-        <v>14941571</v>
-      </c>
-      <c r="K116" s="3">
-        <v>0</v>
-      </c>
-      <c r="L116" s="3">
-        <v>0</v>
+        <v>215</v>
+      </c>
+      <c r="B116" s="43"/>
+      <c r="C116" s="60" t="s">
+        <v>94</v>
+      </c>
+      <c r="D116" s="43"/>
+      <c r="E116" s="7">
+        <v>73584</v>
+      </c>
+      <c r="F116" s="7">
+        <v>9386323824</v>
+      </c>
+      <c r="G116" s="7">
+        <v>2618858.5</v>
+      </c>
+      <c r="H116" s="7">
+        <v>184759580679.5</v>
+      </c>
+      <c r="I116" s="7">
+        <v>2667976.7000000002</v>
+      </c>
+      <c r="J116" s="7">
+        <v>190677395204.5</v>
+      </c>
+      <c r="K116" s="7">
+        <v>24465.8</v>
+      </c>
+      <c r="L116" s="7">
+        <v>3468509299</v>
       </c>
       <c r="M116" s="38"/>
     </row>
     <row r="117" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A117" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="B117" s="46"/>
-      <c r="C117" s="50"/>
-      <c r="D117" s="64"/>
-      <c r="E117" s="3"/>
-      <c r="F117" s="3"/>
-      <c r="G117" s="10"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="10"/>
-      <c r="K117" s="3"/>
-      <c r="L117" s="3"/>
       <c r="M117" s="38"/>
     </row>
     <row r="118" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A118" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="B118" s="43"/>
-      <c r="C118" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="D118" s="43"/>
-      <c r="E118" s="7">
-        <v>73584</v>
-      </c>
-      <c r="F118" s="7">
-        <v>9386323824</v>
-      </c>
-      <c r="G118" s="7">
-        <v>2618858.5</v>
-      </c>
-      <c r="H118" s="7">
-        <v>184759580679.5</v>
-      </c>
-      <c r="I118" s="7">
-        <v>2667976.7000000002</v>
-      </c>
-      <c r="J118" s="7">
-        <v>190677395204.5</v>
-      </c>
-      <c r="K118" s="7">
-        <v>24465.8</v>
-      </c>
-      <c r="L118" s="7">
-        <v>3468509299</v>
-      </c>
       <c r="M118" s="38"/>
     </row>
-    <row r="119" spans="1:13" ht="21.75" customHeight="1">
-      <c r="A119" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="B119" s="83"/>
-      <c r="C119" s="83"/>
-      <c r="D119" s="82"/>
-      <c r="E119" s="84"/>
-      <c r="F119" s="84">
-        <v>0</v>
-      </c>
-      <c r="G119" s="84"/>
-      <c r="H119" s="84">
-        <v>0</v>
-      </c>
-      <c r="I119" s="84"/>
-      <c r="J119" s="84">
-        <v>0</v>
-      </c>
-      <c r="K119" s="84"/>
-      <c r="L119" s="84">
-        <v>0</v>
-      </c>
+    <row r="119" spans="1:13" ht="15">
+      <c r="C119" s="103"/>
+      <c r="D119" s="103"/>
+      <c r="E119" s="103"/>
+      <c r="F119" s="67"/>
+      <c r="G119" s="67"/>
+      <c r="H119" s="67"/>
+      <c r="I119" s="67"/>
+      <c r="J119" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="K119" s="103"/>
+      <c r="L119" s="103"/>
       <c r="M119" s="38"/>
     </row>
-    <row r="120" spans="1:13" ht="21.75" customHeight="1">
+    <row r="120" spans="1:13" ht="15">
+      <c r="C120" s="68"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="68"/>
+      <c r="F120" s="103"/>
+      <c r="G120" s="103"/>
+      <c r="H120" s="103"/>
+      <c r="I120" s="67"/>
+      <c r="J120" s="103" t="s">
+        <v>10</v>
+      </c>
+      <c r="K120" s="103"/>
+      <c r="L120" s="103"/>
       <c r="M120" s="38"/>
     </row>
-    <row r="121" spans="1:13" ht="21.75" customHeight="1">
+    <row r="121" spans="1:13" ht="15">
+      <c r="C121" s="68"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="68"/>
+      <c r="F121" s="103"/>
+      <c r="G121" s="103"/>
+      <c r="H121" s="103"/>
+      <c r="I121" s="38"/>
+      <c r="J121" s="103" t="s">
+        <v>11</v>
+      </c>
+      <c r="K121" s="103"/>
+      <c r="L121" s="103"/>
       <c r="M121" s="38"/>
     </row>
-    <row r="122" spans="1:13" ht="15">
-      <c r="C122" s="121"/>
-      <c r="D122" s="121"/>
-      <c r="E122" s="121"/>
-      <c r="F122" s="67"/>
-      <c r="G122" s="67"/>
-      <c r="H122" s="67"/>
-      <c r="I122" s="67"/>
-      <c r="J122" s="121" t="s">
-        <v>95</v>
-      </c>
-      <c r="K122" s="121"/>
-      <c r="L122" s="121"/>
+    <row r="122" spans="1:13">
       <c r="M122" s="38"/>
     </row>
-    <row r="123" spans="1:13" ht="15">
-      <c r="C123" s="68"/>
-      <c r="D123" s="68"/>
-      <c r="E123" s="68"/>
-      <c r="F123" s="121"/>
-      <c r="G123" s="121"/>
-      <c r="H123" s="121"/>
-      <c r="I123" s="67"/>
-      <c r="J123" s="121" t="s">
-        <v>10</v>
-      </c>
-      <c r="K123" s="121"/>
-      <c r="L123" s="121"/>
+    <row r="123" spans="1:13">
       <c r="M123" s="38"/>
     </row>
-    <row r="124" spans="1:13" ht="15">
-      <c r="C124" s="68"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="68"/>
-      <c r="F124" s="121"/>
-      <c r="G124" s="121"/>
-      <c r="H124" s="121"/>
-      <c r="I124" s="38"/>
-      <c r="J124" s="121" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="121"/>
-      <c r="L124" s="121"/>
+    <row r="124" spans="1:13">
       <c r="M124" s="38"/>
     </row>
     <row r="125" spans="1:13">
       <c r="M125" s="38"/>
     </row>
-    <row r="126" spans="1:13">
-      <c r="M126" s="38"/>
-    </row>
-    <row r="127" spans="1:13">
-      <c r="M127" s="38"/>
-    </row>
-    <row r="128" spans="1:13">
-      <c r="M128" s="38"/>
-    </row>
   </sheetData>
-  <autoFilter ref="B10:M119"/>
+  <autoFilter ref="B10:M116"/>
   <sortState ref="C75:C99">
     <sortCondition ref="C75:C99"/>
   </sortState>
   <mergeCells count="20">
-    <mergeCell ref="F124:H124"/>
-    <mergeCell ref="J124:L124"/>
-    <mergeCell ref="C122:E122"/>
-    <mergeCell ref="J122:L122"/>
-    <mergeCell ref="F123:H123"/>
-    <mergeCell ref="J123:L123"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B4:L4"/>
     <mergeCell ref="C6:L6"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
@@ -10021,14 +9991,130 @@
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="K8:L8"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="H3:L3"/>
-    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="F121:H121"/>
+    <mergeCell ref="J121:L121"/>
+    <mergeCell ref="C119:E119"/>
+    <mergeCell ref="J119:L119"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="J120:L120"/>
   </mergeCells>
   <pageMargins left="0.71" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="7" style="38" customWidth="1"/>
+    <col min="2" max="2" width="23.5703125" style="38" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="38"/>
+    <col min="4" max="4" width="10.7109375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="11" style="38" customWidth="1"/>
+    <col min="6" max="6" width="16" style="38" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="40.5" customHeight="1">
+      <c r="B1" s="129" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="120" customFormat="1" ht="38.25" customHeight="1">
+      <c r="A3" s="119" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="119" t="s">
+        <v>250</v>
+      </c>
+      <c r="C3" s="119" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="119" t="s">
+        <v>253</v>
+      </c>
+      <c r="E3" s="119" t="s">
+        <v>254</v>
+      </c>
+      <c r="F3" s="119" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A4" s="81">
+        <v>1</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="10">
+        <v>84448</v>
+      </c>
+      <c r="E4" s="10">
+        <v>17000</v>
+      </c>
+      <c r="F4" s="10">
+        <f>D4*E4</f>
+        <v>1435616000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A5" s="46">
+        <v>2</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>216</v>
+      </c>
+      <c r="C5" s="51"/>
+      <c r="D5" s="3">
+        <v>2030</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7500</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" ref="F5:F6" si="0">D5*E5</f>
+        <v>15225000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="24.75" customHeight="1">
+      <c r="A6" s="121"/>
+      <c r="B6" s="122"/>
+      <c r="C6" s="124"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="128" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A7" s="125"/>
+      <c r="B7" s="126" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="125"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127">
+        <f>SUM(F4:F6)</f>
+        <v>1450841000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="24.75" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>